--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/it_IT.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/it_IT.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5217">
   <si>
     <t>translation_group</t>
   </si>
@@ -15622,12 +15622,6 @@
   </si>
   <si>
     <t xml:space="preserve"> notifiche</t>
-  </si>
-  <si>
-    <t>2021-02-24T11:44:54.000000Z</t>
-  </si>
-  <si>
-    <t>24-02-2021T11: 44: 54.000000Z</t>
   </si>
   <si>
     <t>1 day ago</t>
@@ -16014,17 +16008,17 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D2772"/>
+  <dimension ref="A1:D2773"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D2772" sqref="D2772"/>
+      <selection activeCell="D2773" sqref="D2773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="9.10" style="0"/>
-    <col min="2" max="2" width="9.10" style="0"/>
-    <col min="3" max="3" width="9.10" style="0"/>
+    <col min="2" max="2" width="22" customWidth="true" style="0"/>
+    <col min="3" max="3" width="255.7109375" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.10" style="0"/>
   </cols>
   <sheetData>
@@ -54671,18 +54665,10 @@
       </c>
     </row>
     <row r="2762" spans="1:4">
-      <c r="A2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2762" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2762" t="s">
-        <v>5201</v>
-      </c>
-      <c r="D2762" t="s">
-        <v>5202</v>
-      </c>
+      <c r="A2762"/>
+      <c r="B2762"/>
+      <c r="C2762"/>
+      <c r="D2762"/>
     </row>
     <row r="2763" spans="1:4">
       <c r="A2763" t="s">
@@ -54692,10 +54678,10 @@
         <v>4</v>
       </c>
       <c r="C2763" t="s">
-        <v>5203</v>
+        <v>5201</v>
       </c>
       <c r="D2763" t="s">
-        <v>5204</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="2764" spans="1:4">
@@ -54706,10 +54692,10 @@
         <v>4</v>
       </c>
       <c r="C2764" t="s">
-        <v>5205</v>
+        <v>5203</v>
       </c>
       <c r="D2764" t="s">
-        <v>5206</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="2765" spans="1:4">
@@ -54720,10 +54706,10 @@
         <v>4</v>
       </c>
       <c r="C2765" t="s">
-        <v>5207</v>
+        <v>5205</v>
       </c>
       <c r="D2765" t="s">
-        <v>5208</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="2766" spans="1:4">
@@ -54734,10 +54720,10 @@
         <v>4</v>
       </c>
       <c r="C2766" t="s">
-        <v>5209</v>
+        <v>5207</v>
       </c>
       <c r="D2766" t="s">
-        <v>5210</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="2767" spans="1:4">
@@ -54748,10 +54734,10 @@
         <v>4</v>
       </c>
       <c r="C2767" t="s">
-        <v>5211</v>
+        <v>5209</v>
       </c>
       <c r="D2767" t="s">
-        <v>5212</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="2768" spans="1:4">
@@ -54762,10 +54748,10 @@
         <v>4</v>
       </c>
       <c r="C2768" t="s">
-        <v>5213</v>
+        <v>5211</v>
       </c>
       <c r="D2768" t="s">
-        <v>5214</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="2769" spans="1:4">
@@ -54776,10 +54762,10 @@
         <v>4</v>
       </c>
       <c r="C2769" t="s">
-        <v>5215</v>
+        <v>5213</v>
       </c>
       <c r="D2769" t="s">
-        <v>5216</v>
+        <v>5214</v>
       </c>
     </row>
     <row r="2770" spans="1:4">
@@ -54818,11 +54804,17 @@
         <v>4</v>
       </c>
       <c r="C2772" t="s">
-        <v>5217</v>
+        <v>5215</v>
       </c>
       <c r="D2772" t="s">
-        <v>5218</v>
-      </c>
+        <v>5216</v>
+      </c>
+    </row>
+    <row r="2773" spans="1:4">
+      <c r="A2773"/>
+      <c r="B2773"/>
+      <c r="C2773"/>
+      <c r="D2773"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/it_IT.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/it_IT.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5890">
   <si>
     <t>translation_group</t>
   </si>
@@ -10115,10 +10115,10 @@
     <t>Impostazioni SEO</t>
   </si>
   <si>
-    <t>Fill in the fields for maximum results when finding your website in _x0003_search engines.</t>
-  </si>
-  <si>
-    <t>Compila i campi per ottenere il massimo dei risultati quando trovi il tuo sito web nei motori di ricerca.</t>
+    <t>Fill in the fields for maximum results when finding your website in search engines.</t>
+  </si>
+  <si>
+    <t>Compila i campi per ottenere i massimi risultati quando trovi il tuo sito web nei motori di ricerca.</t>
   </si>
   <si>
     <t>This is very important for search engines.</t>
@@ -17095,6 +17095,610 @@
   </si>
   <si>
     <t>Mail providers</t>
+  </si>
+  <si>
+    <t>Welcome to Microweber</t>
+  </si>
+  <si>
+    <t>Benvenuto in Microweber</t>
+  </si>
+  <si>
+    <t>Use Microweber to build your website, online shop or blog.</t>
+  </si>
+  <si>
+    <t>Usa Microweber per creare il tuo sito web, negozio online o blog.</t>
+  </si>
+  <si>
+    <t>Create and edit content, sell online, manage orders and clients.</t>
+  </si>
+  <si>
+    <t>Crea e modifica contenuti, vendi online, gestisci ordini e clienti.</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Abandoned cart's</t>
+  </si>
+  <si>
+    <t>Carrello abbandonato</t>
+  </si>
+  <si>
+    <t>You are using this template.</t>
+  </si>
+  <si>
+    <t>Stai usando questo modello.</t>
+  </si>
+  <si>
+    <t>The change will affect only the current page.</t>
+  </si>
+  <si>
+    <t>La modifica interesserà solo la pagina corrente.</t>
+  </si>
+  <si>
+    <t>Allow multiple templates</t>
+  </si>
+  <si>
+    <t>Consenti più modelli</t>
+  </si>
+  <si>
+    <t>If you allow multiple templates, you will be abble to use different templates when you create a new pages.</t>
+  </si>
+  <si>
+    <t>Se consenti più modelli, sarai in grado di utilizzare modelli diversi quando crei una nuova pagina.</t>
+  </si>
+  <si>
+    <t>System e-mail website settings</t>
+  </si>
+  <si>
+    <t>Impostazioni del sito Web di posta elettronica di sistema</t>
+  </si>
+  <si>
+    <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
+  </si>
+  <si>
+    <t>Invia messaggi relativi a nuova registrazione, reimpostazione della password e altre funzionalità di sistema.</t>
+  </si>
+  <si>
+    <t>From e-mail address</t>
+  </si>
+  <si>
+    <t>Dall'indirizzo e-mail</t>
+  </si>
+  <si>
+    <t>Ex. Your Website Name</t>
+  </si>
+  <si>
+    <t>Ex. Il nome del tuo sito web</t>
+  </si>
+  <si>
+    <t>General e-mail provider settings</t>
+  </si>
+  <si>
+    <t>Impostazioni generali del provider di posta elettronica</t>
+  </si>
+  <si>
+    <t>Set up your email provider.</t>
+  </si>
+  <si>
+    <t>Configura il tuo provider di posta elettronica.</t>
+  </si>
+  <si>
+    <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
+  </si>
+  <si>
+    <t>Il provider di posta elettronica generale recapiterà tutti i messaggi relativi al sito web. Compresi i messaggi di sistema e i messaggi del modulo di contatto.</t>
+  </si>
+  <si>
+    <t>Website Logo</t>
+  </si>
+  <si>
+    <t>Logo del sito web</t>
+  </si>
+  <si>
+    <t>Select an logo for your website.</t>
+  </si>
+  <si>
+    <t>Seleziona un logo per il tuo sito web.</t>
+  </si>
+  <si>
+    <t>Upload logo</t>
+  </si>
+  <si>
+    <t>Carica il logo</t>
+  </si>
+  <si>
+    <t>Website Favicon</t>
+  </si>
+  <si>
+    <t>Sito web Favicon</t>
+  </si>
+  <si>
+    <t>Changing default language..</t>
+  </si>
+  <si>
+    <t>Modifica della lingua predefinita ...</t>
+  </si>
+  <si>
+    <t>Clear cache..</t>
+  </si>
+  <si>
+    <t>Cancella cache ..</t>
+  </si>
+  <si>
+    <t>Install Multilanguage Module</t>
+  </si>
+  <si>
+    <t>Installa il modulo multilingua</t>
+  </si>
+  <si>
+    <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
+  </si>
+  <si>
+    <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
+  </si>
+  <si>
+    <t>Gli utenti registrati possono ricevere automaticamente un'e-mail automatica da te. Visualizza le impostazioni e pubblica i tuoi messaggi.</t>
+  </si>
+  <si>
+    <t>Send email on new user registration to admin users</t>
+  </si>
+  <si>
+    <t>Invia e-mail alla registrazione di un nuovo utente agli utenti amministratori</t>
+  </si>
+  <si>
+    <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
+  </si>
+  <si>
+    <t>Vuoi che gli amministratori ricevano un'e-mail quando un nuovo utente è registrato?</t>
+  </si>
+  <si>
+    <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
+  </si>
+  <si>
+    <t>Microweber è un generatore di siti Web drag and drop e CMS open source gratuito. È sotto licenza MIT e utilizziamo il framework PHP Laravel</t>
+  </si>
+  <si>
+    <t>A Slider</t>
+  </si>
+  <si>
+    <t>Un cursore</t>
+  </si>
+  <si>
+    <t>Shipping to address</t>
+  </si>
+  <si>
+    <t>Spedizione all'indirizzo</t>
+  </si>
+  <si>
+    <t>Pickup from address</t>
+  </si>
+  <si>
+    <t>Ritiro dall'indirizzo</t>
+  </si>
+  <si>
+    <t>Global settings</t>
+  </si>
+  <si>
+    <t>Impostazioni globali</t>
+  </si>
+  <si>
+    <t>E-mail Integrations</t>
+  </si>
+  <si>
+    <t>Integrazioni di posta elettronica</t>
+  </si>
+  <si>
+    <t>You don't have system e-mail and smtp setup.</t>
+  </si>
+  <si>
+    <t>Non hai la posta elettronica di sistema e la configurazione smtp.</t>
+  </si>
+  <si>
+    <t>Setup your system settings here.</t>
+  </si>
+  <si>
+    <t>Configura le impostazioni di sistema qui.</t>
+  </si>
+  <si>
+    <t>Global contact form settings</t>
+  </si>
+  <si>
+    <t>Impostazioni globali del modulo di contatto</t>
+  </si>
+  <si>
+    <t>E-mail sending options</t>
+  </si>
+  <si>
+    <t>Opzioni di invio di posta elettronica</t>
+  </si>
+  <si>
+    <t>Global sender</t>
+  </si>
+  <si>
+    <t>Mittente globale</t>
+  </si>
+  <si>
+    <t>Use custom sender settings</t>
+  </si>
+  <si>
+    <t>Usa impostazioni mittente personalizzate</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the global contact forms.</t>
+  </si>
+  <si>
+    <t>Utilizza le impostazioni del mittente personalizzate per i moduli di contatto globali.</t>
+  </si>
+  <si>
+    <t>By default we will use website system e-mail settings.</t>
+  </si>
+  <si>
+    <t>Per impostazione predefinita, utilizzeremo le impostazioni di posta elettronica del sistema del sito web.</t>
+  </si>
+  <si>
+    <t>You can change the system e-mail settings here.</t>
+  </si>
+  <si>
+    <t>È possibile modificare le impostazioni di posta elettronica del sistema qui.</t>
+  </si>
+  <si>
+    <t>Global Receivers</t>
+  </si>
+  <si>
+    <t>Ricevitori globali</t>
+  </si>
+  <si>
+    <t>Send contact forms data to global receivers when is submited</t>
+  </si>
+  <si>
+    <t>Invia i dati dei moduli di contatto ai destinatari globali quando viene inviato</t>
+  </si>
+  <si>
+    <t>To e-mail addresses</t>
+  </si>
+  <si>
+    <t>Agli indirizzi di posta elettronica</t>
+  </si>
+  <si>
+    <t>E-mail address of the receivers seperated with coma.</t>
+  </si>
+  <si>
+    <t>Indirizzo di posta elettronica dei destinatari separato dal coma.</t>
+  </si>
+  <si>
+    <t>Contact your hosting provider to enable PHP SOAP extension.</t>
+  </si>
+  <si>
+    <t>Contatta il tuo provider di hosting per abilitare l'estensione SOAP PHP.</t>
+  </si>
+  <si>
+    <t>Elements</t>
+  </si>
+  <si>
+    <t>Elementi</t>
+  </si>
+  <si>
+    <t>2 months ago</t>
+  </si>
+  <si>
+    <t>2 mesi fa</t>
+  </si>
+  <si>
+    <t>Remove logo</t>
+  </si>
+  <si>
+    <t>Rimuovi logo</t>
+  </si>
+  <si>
+    <t>Remove favicon</t>
+  </si>
+  <si>
+    <t>Rimuovi favicon</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Personalizzato</t>
+  </si>
+  <si>
+    <t>bxSlider</t>
+  </si>
+  <si>
+    <t>Schema.org</t>
+  </si>
+  <si>
+    <t>ProductsV2</t>
+  </si>
+  <si>
+    <t>Prodotti V2</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>Sequenza temporale</t>
+  </si>
+  <si>
+    <t>White label WHMCS</t>
+  </si>
+  <si>
+    <t>Etichetta bianca WHMCS</t>
+  </si>
+  <si>
+    <t>Number of the visible testimonials</t>
+  </si>
+  <si>
+    <t>Module template has changed</t>
+  </si>
+  <si>
+    <t>Il modello del modulo è cambiato</t>
+  </si>
+  <si>
+    <t>Content versions</t>
+  </si>
+  <si>
+    <t>Versioni del contenuto</t>
+  </si>
+  <si>
+    <t>Clear Cache</t>
+  </si>
+  <si>
+    <t>Default layouts and elements</t>
+  </si>
+  <si>
+    <t>Layout ed elementi predefiniti</t>
+  </si>
+  <si>
+    <t>Arrows List</t>
+  </si>
+  <si>
+    <t>Elenco delle frecce</t>
+  </si>
+  <si>
+    <t>Checked List</t>
+  </si>
+  <si>
+    <t>Elenco controllato</t>
+  </si>
+  <si>
+    <t>Background Text</t>
+  </si>
+  <si>
+    <t>Testo di sfondo</t>
+  </si>
+  <si>
+    <t>Title with Text</t>
+  </si>
+  <si>
+    <t>Titolo con testo</t>
+  </si>
+  <si>
+    <t>Icon with Text</t>
+  </si>
+  <si>
+    <t>Icona con testo</t>
+  </si>
+  <si>
+    <t>Two Text Columns</t>
+  </si>
+  <si>
+    <t>Due colonne di testo</t>
+  </si>
+  <si>
+    <t>Two text columns with icon and title</t>
+  </si>
+  <si>
+    <t>Due colonne di testo con icona e titolo</t>
+  </si>
+  <si>
+    <t>Image with Title and Text</t>
+  </si>
+  <si>
+    <t>Immagine con titolo e testo</t>
+  </si>
+  <si>
+    <t>Text with Image and Title</t>
+  </si>
+  <si>
+    <t>Testo con immagine e titolo</t>
+  </si>
+  <si>
+    <t>Text with Image</t>
+  </si>
+  <si>
+    <t>Enable comments</t>
+  </si>
+  <si>
+    <t>Abilita i commenti</t>
+  </si>
+  <si>
+    <t>Captcha settings</t>
+  </si>
+  <si>
+    <t>Impostazioni captcha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setup your captcha preferences from </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imposta le tue preferenze captcha da </t>
+  </si>
+  <si>
+    <t>Add / Edit fields of the form using the custom fields</t>
+  </si>
+  <si>
+    <t>Current contact form settings</t>
+  </si>
+  <si>
+    <t>Impostazioni attuali del modulo di contatto</t>
+  </si>
+  <si>
+    <t>Contact form name</t>
+  </si>
+  <si>
+    <t>Nome del modulo di contatto</t>
+  </si>
+  <si>
+    <t>What is the name of this contact form?</t>
+  </si>
+  <si>
+    <t>Qual è il nome di questo modulo di contatto?</t>
+  </si>
+  <si>
+    <t>Receivers</t>
+  </si>
+  <si>
+    <t>Ricevitori</t>
+  </si>
+  <si>
+    <t>Send contact form data to custom receivers when is submited</t>
+  </si>
+  <si>
+    <t>Invia i dati del modulo di contatto ai destinatari personalizzati quando viene inviato</t>
+  </si>
+  <si>
+    <t>Use custom receivers settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Utilizza le impostazioni personalizzate dei ricevitori per il modulo di contatto corrente.</t>
+  </si>
+  <si>
+    <t>By default we will use contact form global settings.</t>
+  </si>
+  <si>
+    <t>Per impostazione predefinita, utilizzeremo le impostazioni globali del modulo di contatto.</t>
+  </si>
+  <si>
+    <t>You can change the contact form global settings here.</t>
+  </si>
+  <si>
+    <t>Puoi modificare le impostazioni globali del modulo di contatto qui.</t>
+  </si>
+  <si>
+    <t>Auto respond message to user</t>
+  </si>
+  <si>
+    <t>Messaggio di risposta automatica all'utente</t>
+  </si>
+  <si>
+    <t>Enable auto respond message to user</t>
+  </si>
+  <si>
+    <t>Abilita il messaggio di risposta automatica all'utente</t>
+  </si>
+  <si>
+    <t>Allow users to receive "Thank you emails after subscription."</t>
+  </si>
+  <si>
+    <t>Consenti agli utenti di ricevere "email di ringraziamento dopo l'iscrizione".</t>
+  </si>
+  <si>
+    <t>Auto respond subject</t>
+  </si>
+  <si>
+    <t>Soggetto con risposta automatica</t>
+  </si>
+  <si>
+    <t>Auto responders allows you to set up automated replies to incoming email</t>
+  </si>
+  <si>
+    <t>I risponditori automatici ti consentono di impostare risposte automatiche alle e-mail in arrivo</t>
+  </si>
+  <si>
+    <t>Auto respond message</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail sent back to the user</t>
+  </si>
+  <si>
+    <t>E-mail di risposta automatica inviata all'utente</t>
+  </si>
+  <si>
+    <t>Auto respond custom sender</t>
+  </si>
+  <si>
+    <t>Mittente personalizzato con risposta automatica</t>
+  </si>
+  <si>
+    <t>Use custom sender settings for the current contact form.</t>
+  </si>
+  <si>
+    <t>Utilizza le impostazioni del mittente personalizzate per il modulo di contatto corrente.</t>
+  </si>
+  <si>
+    <t>Auto respond from e-mail address</t>
+  </si>
+  <si>
+    <t>Risposta automatica dall'indirizzo e-mail</t>
+  </si>
+  <si>
+    <t>Auto respond from name</t>
+  </si>
+  <si>
+    <t>Risposta automatica dal nome</t>
+  </si>
+  <si>
+    <t>Auto respond reply to e-mail</t>
+  </si>
+  <si>
+    <t>Risposta automatica risposta a e-mail</t>
+  </si>
+  <si>
+    <t>When the user receive the auto respond message they can response back to reply to email.</t>
+  </si>
+  <si>
+    <t>Quando l'utente riceve il messaggio di risposta automatica, può rispondere per rispondere all'e-mail.</t>
+  </si>
+  <si>
+    <t>Auto respond e-mail attachments</t>
+  </si>
+  <si>
+    <t>Rispondi automaticamente agli allegati di posta elettronica</t>
+  </si>
+  <si>
+    <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
+  </si>
+  <si>
+    <t>Se desideri allegare immagini, devi caricarle nella galleria da "Aggiungi media"</t>
+  </si>
+  <si>
+    <t>You don’t have any posts yet</t>
+  </si>
+  <si>
+    <t>Non hai ancora nessun post</t>
+  </si>
+  <si>
+    <t>Create your first post right now.</t>
+  </si>
+  <si>
+    <t>Crea subito il tuo primo post.</t>
+  </si>
+  <si>
+    <t>Create a Post</t>
+  </si>
+  <si>
+    <t>Crea un post</t>
+  </si>
+  <si>
+    <t>templates-new-world</t>
+  </si>
+  <si>
+    <t>How to write product descriptions that sell
+                                                    One of the best things you can do to make your store successful is invest some time in writing great product descriptions. You want to provide detailed yet concise information that will entice potential customers to buy.
+                                                    Think like a consumer
+                                                    Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
+                                                   features — try to
+                                                            limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>Come scrivere descrizioni di prodotti che vendono
+                                                    Una delle cose migliori che puoi fare per rendere il tuo negozio di successo è investire del tempo nella scrittura di ottime descrizioni di prodotti. Desideri fornire informazioni dettagliate ma concise che invogliano i potenziali clienti ad acquistare.
+                                                    Pensa come un consumatore
+                                                    Pensa a ciò che tu come consumatore vorresti sapere, quindi includi queste caratteristiche nella descrizione. Per i vestiti: materiali e vestibilità. Per il cibo: ingredienti e come è stato preparato. I punti elenco sono tuoi amici quando elenchi
+                                                   funzionalità: prova a
+                                                            limitare ciascuna a 5-8 parole.</t>
   </si>
 </sst>
 </file>
@@ -17433,7 +18037,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2959"/>
+  <dimension ref="A1:E3062"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -67741,6 +68345,1757 @@
         <v>3604</v>
       </c>
       <c r="E2959" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2960" spans="1:5">
+      <c r="A2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2960" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2960" t="s">
+        <v>5692</v>
+      </c>
+      <c r="D2960" t="s">
+        <v>5693</v>
+      </c>
+      <c r="E2960" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2961" spans="1:5">
+      <c r="A2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2961" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2961" t="s">
+        <v>5694</v>
+      </c>
+      <c r="D2961" t="s">
+        <v>5695</v>
+      </c>
+      <c r="E2961" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2962" spans="1:5">
+      <c r="A2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2962" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2962" t="s">
+        <v>5696</v>
+      </c>
+      <c r="D2962" t="s">
+        <v>5697</v>
+      </c>
+      <c r="E2962" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2963" spans="1:5">
+      <c r="A2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2963" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2963" t="s">
+        <v>5698</v>
+      </c>
+      <c r="D2963" t="s">
+        <v>2848</v>
+      </c>
+      <c r="E2963" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2964" spans="1:5">
+      <c r="A2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2964" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2964" t="s">
+        <v>5699</v>
+      </c>
+      <c r="D2964" t="s">
+        <v>5700</v>
+      </c>
+      <c r="E2964" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2965" spans="1:5">
+      <c r="A2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2965" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2965" t="s">
+        <v>5701</v>
+      </c>
+      <c r="D2965" t="s">
+        <v>5702</v>
+      </c>
+      <c r="E2965" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2966" spans="1:5">
+      <c r="A2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2966" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2966" t="s">
+        <v>5703</v>
+      </c>
+      <c r="D2966" t="s">
+        <v>5704</v>
+      </c>
+      <c r="E2966" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2967" spans="1:5">
+      <c r="A2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2967" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2967" t="s">
+        <v>5705</v>
+      </c>
+      <c r="D2967" t="s">
+        <v>5706</v>
+      </c>
+      <c r="E2967" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2968" spans="1:5">
+      <c r="A2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2968" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2968" t="s">
+        <v>5707</v>
+      </c>
+      <c r="D2968" t="s">
+        <v>5708</v>
+      </c>
+      <c r="E2968" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2969" spans="1:5">
+      <c r="A2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2969" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2969" t="s">
+        <v>5709</v>
+      </c>
+      <c r="D2969" t="s">
+        <v>5710</v>
+      </c>
+      <c r="E2969" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2970" spans="1:5">
+      <c r="A2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2970" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2970" t="s">
+        <v>5711</v>
+      </c>
+      <c r="D2970" t="s">
+        <v>5712</v>
+      </c>
+      <c r="E2970" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2971" spans="1:5">
+      <c r="A2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2971" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2971" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D2971" t="s">
+        <v>5714</v>
+      </c>
+      <c r="E2971" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2972" spans="1:5">
+      <c r="A2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2972" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2972" t="s">
+        <v>5715</v>
+      </c>
+      <c r="D2972" t="s">
+        <v>5716</v>
+      </c>
+      <c r="E2972" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2973" spans="1:5">
+      <c r="A2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2973" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2973" t="s">
+        <v>5717</v>
+      </c>
+      <c r="D2973" t="s">
+        <v>5718</v>
+      </c>
+      <c r="E2973" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2974" spans="1:5">
+      <c r="A2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2974" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2974" t="s">
+        <v>5719</v>
+      </c>
+      <c r="D2974" t="s">
+        <v>5720</v>
+      </c>
+      <c r="E2974" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2975" spans="1:5">
+      <c r="A2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2975" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2975" t="s">
+        <v>5721</v>
+      </c>
+      <c r="D2975" t="s">
+        <v>5722</v>
+      </c>
+      <c r="E2975" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2976" spans="1:5">
+      <c r="A2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2976" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2976" t="s">
+        <v>5723</v>
+      </c>
+      <c r="D2976" t="s">
+        <v>5724</v>
+      </c>
+      <c r="E2976" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2977" spans="1:5">
+      <c r="A2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2977" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2977" t="s">
+        <v>5725</v>
+      </c>
+      <c r="D2977" t="s">
+        <v>5726</v>
+      </c>
+      <c r="E2977" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2978" spans="1:5">
+      <c r="A2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2978" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2978" t="s">
+        <v>5727</v>
+      </c>
+      <c r="D2978" t="s">
+        <v>5728</v>
+      </c>
+      <c r="E2978" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2979" spans="1:5">
+      <c r="A2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2979" t="s">
+        <v>5729</v>
+      </c>
+      <c r="D2979" t="s">
+        <v>5730</v>
+      </c>
+      <c r="E2979" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2980" spans="1:5">
+      <c r="A2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2980" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2980" t="s">
+        <v>5731</v>
+      </c>
+      <c r="D2980" t="s">
+        <v>5732</v>
+      </c>
+      <c r="E2980" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2981" spans="1:5">
+      <c r="A2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2981" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2981" t="s">
+        <v>5733</v>
+      </c>
+      <c r="D2981" t="s">
+        <v>5734</v>
+      </c>
+      <c r="E2981" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2982" spans="1:5">
+      <c r="A2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2982" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2982" t="s">
+        <v>5735</v>
+      </c>
+      <c r="D2982" t="s">
+        <v>5736</v>
+      </c>
+      <c r="E2982" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2983" spans="1:5">
+      <c r="A2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2983" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2983" t="s">
+        <v>5737</v>
+      </c>
+      <c r="D2983" t="s">
+        <v>3816</v>
+      </c>
+      <c r="E2983" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2984" spans="1:5">
+      <c r="A2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2984" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2984" t="s">
+        <v>5738</v>
+      </c>
+      <c r="D2984" t="s">
+        <v>5739</v>
+      </c>
+      <c r="E2984" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2985" spans="1:5">
+      <c r="A2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2985" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2985" t="s">
+        <v>5740</v>
+      </c>
+      <c r="D2985" t="s">
+        <v>5741</v>
+      </c>
+      <c r="E2985" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2986" spans="1:5">
+      <c r="A2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2986" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2986" t="s">
+        <v>5742</v>
+      </c>
+      <c r="D2986" t="s">
+        <v>5743</v>
+      </c>
+      <c r="E2986" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2987" spans="1:5">
+      <c r="A2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2987" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2987" t="s">
+        <v>5744</v>
+      </c>
+      <c r="D2987" t="s">
+        <v>5745</v>
+      </c>
+      <c r="E2987" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2988" spans="1:5">
+      <c r="A2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2988" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2988" t="s">
+        <v>5746</v>
+      </c>
+      <c r="D2988" t="s">
+        <v>5747</v>
+      </c>
+      <c r="E2988" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2989" spans="1:5">
+      <c r="A2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2989" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2989" t="s">
+        <v>5748</v>
+      </c>
+      <c r="D2989" t="s">
+        <v>5749</v>
+      </c>
+      <c r="E2989" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2990" spans="1:5">
+      <c r="A2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2990" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2990" t="s">
+        <v>5750</v>
+      </c>
+      <c r="D2990" t="s">
+        <v>5751</v>
+      </c>
+      <c r="E2990" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2991" spans="1:5">
+      <c r="A2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2991" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2991" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D2991" t="s">
+        <v>5753</v>
+      </c>
+      <c r="E2991" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2992" spans="1:5">
+      <c r="A2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2992" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2992" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D2992" t="s">
+        <v>5755</v>
+      </c>
+      <c r="E2992" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2993" spans="1:5">
+      <c r="A2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2993" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2993" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D2993" t="s">
+        <v>5757</v>
+      </c>
+      <c r="E2993" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2994" spans="1:5">
+      <c r="A2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2994" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2994" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D2994" t="s">
+        <v>5759</v>
+      </c>
+      <c r="E2994" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2995" spans="1:5">
+      <c r="A2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2995" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2995" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D2995" t="s">
+        <v>5761</v>
+      </c>
+      <c r="E2995" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2996" spans="1:5">
+      <c r="A2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2996" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2996" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D2996" t="s">
+        <v>5763</v>
+      </c>
+      <c r="E2996" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2997" spans="1:5">
+      <c r="A2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2997" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2997" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D2997" t="s">
+        <v>5765</v>
+      </c>
+      <c r="E2997" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2998" spans="1:5">
+      <c r="A2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2998" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2998" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D2998" t="s">
+        <v>5767</v>
+      </c>
+      <c r="E2998" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2999" spans="1:5">
+      <c r="A2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2999" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2999" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D2999" t="s">
+        <v>5769</v>
+      </c>
+      <c r="E2999" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3000" spans="1:5">
+      <c r="A3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3000" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3000" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D3000" t="s">
+        <v>5771</v>
+      </c>
+      <c r="E3000" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3001" spans="1:5">
+      <c r="A3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3001" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3001" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D3001" t="s">
+        <v>5773</v>
+      </c>
+      <c r="E3001" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3002" spans="1:5">
+      <c r="A3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3002" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3002" t="s">
+        <v>5774</v>
+      </c>
+      <c r="D3002" t="s">
+        <v>5775</v>
+      </c>
+      <c r="E3002" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3003" spans="1:5">
+      <c r="A3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3003" t="s">
+        <v>5776</v>
+      </c>
+      <c r="D3003" t="s">
+        <v>5777</v>
+      </c>
+      <c r="E3003" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3004" spans="1:5">
+      <c r="A3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3004" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3004" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D3004" t="s">
+        <v>5779</v>
+      </c>
+      <c r="E3004" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3005" spans="1:5">
+      <c r="A3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3005" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3005" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D3005" t="s">
+        <v>5781</v>
+      </c>
+      <c r="E3005" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3006" spans="1:5">
+      <c r="A3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3006" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3006" t="s">
+        <v>5782</v>
+      </c>
+      <c r="D3006" t="s">
+        <v>5783</v>
+      </c>
+      <c r="E3006" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3007" spans="1:5">
+      <c r="A3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3007" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3007" t="s">
+        <v>5784</v>
+      </c>
+      <c r="D3007" t="s">
+        <v>5785</v>
+      </c>
+      <c r="E3007" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3008" spans="1:5">
+      <c r="A3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3008" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3008" t="s">
+        <v>5786</v>
+      </c>
+      <c r="D3008" t="s">
+        <v>5787</v>
+      </c>
+      <c r="E3008" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3009" spans="1:5">
+      <c r="A3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3009" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3009" t="s">
+        <v>5788</v>
+      </c>
+      <c r="D3009" t="s">
+        <v>5789</v>
+      </c>
+      <c r="E3009" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3010" spans="1:5">
+      <c r="A3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3010" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3010" t="s">
+        <v>5790</v>
+      </c>
+      <c r="D3010" t="s">
+        <v>5791</v>
+      </c>
+      <c r="E3010" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3011" spans="1:5">
+      <c r="A3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3011" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3011" t="s">
+        <v>5792</v>
+      </c>
+      <c r="D3011" t="s">
+        <v>5793</v>
+      </c>
+      <c r="E3011" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3012" spans="1:5">
+      <c r="A3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3012" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3012" t="s">
+        <v>5794</v>
+      </c>
+      <c r="D3012" t="s">
+        <v>5794</v>
+      </c>
+      <c r="E3012" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3013" spans="1:5">
+      <c r="A3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3013" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3013" t="s">
+        <v>5795</v>
+      </c>
+      <c r="D3013" t="s">
+        <v>5795</v>
+      </c>
+      <c r="E3013" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3014" spans="1:5">
+      <c r="A3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3014" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3014" t="s">
+        <v>5796</v>
+      </c>
+      <c r="D3014" t="s">
+        <v>5797</v>
+      </c>
+      <c r="E3014" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3015" spans="1:5">
+      <c r="A3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3015" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3015" t="s">
+        <v>5798</v>
+      </c>
+      <c r="D3015" t="s">
+        <v>5799</v>
+      </c>
+      <c r="E3015" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3016" spans="1:5">
+      <c r="A3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3016" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3016" t="s">
+        <v>5800</v>
+      </c>
+      <c r="D3016" t="s">
+        <v>5801</v>
+      </c>
+      <c r="E3016" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3017" spans="1:5">
+      <c r="A3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3017" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3017" t="s">
+        <v>5802</v>
+      </c>
+      <c r="D3017" t="s">
+        <v>3301</v>
+      </c>
+      <c r="E3017" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3018" spans="1:5">
+      <c r="A3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3018" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3018" t="s">
+        <v>5803</v>
+      </c>
+      <c r="D3018" t="s">
+        <v>5804</v>
+      </c>
+      <c r="E3018" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3019" spans="1:5">
+      <c r="A3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3019" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3019" t="s">
+        <v>5805</v>
+      </c>
+      <c r="D3019" t="s">
+        <v>5806</v>
+      </c>
+      <c r="E3019" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3020" spans="1:5">
+      <c r="A3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3020" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3020" t="s">
+        <v>5807</v>
+      </c>
+      <c r="D3020" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E3020" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3021" spans="1:5">
+      <c r="A3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3021" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3021" t="s">
+        <v>5808</v>
+      </c>
+      <c r="D3021" t="s">
+        <v>5809</v>
+      </c>
+      <c r="E3021" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3022" spans="1:5">
+      <c r="A3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3022" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3022" t="s">
+        <v>5810</v>
+      </c>
+      <c r="D3022" t="s">
+        <v>5811</v>
+      </c>
+      <c r="E3022" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3023" spans="1:5">
+      <c r="A3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3023" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3023" t="s">
+        <v>5812</v>
+      </c>
+      <c r="D3023" t="s">
+        <v>5813</v>
+      </c>
+      <c r="E3023" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3024" spans="1:5">
+      <c r="A3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3024" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3024" t="s">
+        <v>5814</v>
+      </c>
+      <c r="D3024" t="s">
+        <v>5815</v>
+      </c>
+      <c r="E3024" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3025" spans="1:5">
+      <c r="A3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3025" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3025" t="s">
+        <v>5816</v>
+      </c>
+      <c r="D3025" t="s">
+        <v>5817</v>
+      </c>
+      <c r="E3025" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3026" spans="1:5">
+      <c r="A3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3026" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3026" t="s">
+        <v>5818</v>
+      </c>
+      <c r="D3026" t="s">
+        <v>5819</v>
+      </c>
+      <c r="E3026" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3027" spans="1:5">
+      <c r="A3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3027" t="s">
+        <v>5820</v>
+      </c>
+      <c r="D3027" t="s">
+        <v>5821</v>
+      </c>
+      <c r="E3027" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3028" spans="1:5">
+      <c r="A3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3028" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3028" t="s">
+        <v>5822</v>
+      </c>
+      <c r="D3028" t="s">
+        <v>5823</v>
+      </c>
+      <c r="E3028" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3029" spans="1:5">
+      <c r="A3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3029" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3029" t="s">
+        <v>5824</v>
+      </c>
+      <c r="D3029" t="s">
+        <v>5825</v>
+      </c>
+      <c r="E3029" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3030" spans="1:5">
+      <c r="A3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3030" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3030" t="s">
+        <v>5826</v>
+      </c>
+      <c r="D3030" t="s">
+        <v>5827</v>
+      </c>
+      <c r="E3030" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3031" spans="1:5">
+      <c r="A3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3031" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3031" t="s">
+        <v>5828</v>
+      </c>
+      <c r="D3031" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E3031" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3032" spans="1:5">
+      <c r="A3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3032" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3032" t="s">
+        <v>5829</v>
+      </c>
+      <c r="D3032" t="s">
+        <v>5830</v>
+      </c>
+      <c r="E3032" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3033" spans="1:5">
+      <c r="A3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3033" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3033" t="s">
+        <v>5831</v>
+      </c>
+      <c r="D3033" t="s">
+        <v>5832</v>
+      </c>
+      <c r="E3033" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3034" spans="1:5">
+      <c r="A3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3034" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3034" t="s">
+        <v>5833</v>
+      </c>
+      <c r="D3034" t="s">
+        <v>5834</v>
+      </c>
+      <c r="E3034" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3035" spans="1:5">
+      <c r="A3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3035" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3035" t="s">
+        <v>5835</v>
+      </c>
+      <c r="D3035" t="s">
+        <v>4927</v>
+      </c>
+      <c r="E3035" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3036" spans="1:5">
+      <c r="A3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3036" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3036" t="s">
+        <v>5836</v>
+      </c>
+      <c r="D3036" t="s">
+        <v>5837</v>
+      </c>
+      <c r="E3036" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3037" spans="1:5">
+      <c r="A3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3037" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3037" t="s">
+        <v>5838</v>
+      </c>
+      <c r="D3037" t="s">
+        <v>5839</v>
+      </c>
+      <c r="E3037" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3038" spans="1:5">
+      <c r="A3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3038" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3038" t="s">
+        <v>5840</v>
+      </c>
+      <c r="D3038" t="s">
+        <v>5841</v>
+      </c>
+      <c r="E3038" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3039" spans="1:5">
+      <c r="A3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3039" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3039" t="s">
+        <v>5842</v>
+      </c>
+      <c r="D3039" t="s">
+        <v>5843</v>
+      </c>
+      <c r="E3039" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3040" spans="1:5">
+      <c r="A3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3040" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3040" t="s">
+        <v>5844</v>
+      </c>
+      <c r="D3040" t="s">
+        <v>5845</v>
+      </c>
+      <c r="E3040" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3041" spans="1:5">
+      <c r="A3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3041" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3041" t="s">
+        <v>5846</v>
+      </c>
+      <c r="D3041" t="s">
+        <v>5847</v>
+      </c>
+      <c r="E3041" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3042" spans="1:5">
+      <c r="A3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3042" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3042" t="s">
+        <v>5848</v>
+      </c>
+      <c r="D3042" t="s">
+        <v>5849</v>
+      </c>
+      <c r="E3042" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3043" spans="1:5">
+      <c r="A3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3043" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3043" t="s">
+        <v>5850</v>
+      </c>
+      <c r="D3043" t="s">
+        <v>5851</v>
+      </c>
+      <c r="E3043" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3044" spans="1:5">
+      <c r="A3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3044" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3044" t="s">
+        <v>5852</v>
+      </c>
+      <c r="D3044" t="s">
+        <v>5853</v>
+      </c>
+      <c r="E3044" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3045" spans="1:5">
+      <c r="A3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3045" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3045" t="s">
+        <v>5854</v>
+      </c>
+      <c r="D3045" t="s">
+        <v>5855</v>
+      </c>
+      <c r="E3045" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3046" spans="1:5">
+      <c r="A3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3046" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3046" t="s">
+        <v>5856</v>
+      </c>
+      <c r="D3046" t="s">
+        <v>5857</v>
+      </c>
+      <c r="E3046" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3047" spans="1:5">
+      <c r="A3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3047" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3047" t="s">
+        <v>5858</v>
+      </c>
+      <c r="D3047" t="s">
+        <v>5859</v>
+      </c>
+      <c r="E3047" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3048" spans="1:5">
+      <c r="A3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3048" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3048" t="s">
+        <v>5860</v>
+      </c>
+      <c r="D3048" t="s">
+        <v>5861</v>
+      </c>
+      <c r="E3048" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3049" spans="1:5">
+      <c r="A3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3049" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3049" t="s">
+        <v>5862</v>
+      </c>
+      <c r="D3049" t="s">
+        <v>3102</v>
+      </c>
+      <c r="E3049" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3050" spans="1:5">
+      <c r="A3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3050" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3050" t="s">
+        <v>5863</v>
+      </c>
+      <c r="D3050" t="s">
+        <v>5864</v>
+      </c>
+      <c r="E3050" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3051" spans="1:5">
+      <c r="A3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3051" t="s">
+        <v>5865</v>
+      </c>
+      <c r="D3051" t="s">
+        <v>5866</v>
+      </c>
+      <c r="E3051" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3052" spans="1:5">
+      <c r="A3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3052" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3052" t="s">
+        <v>5867</v>
+      </c>
+      <c r="D3052" t="s">
+        <v>5868</v>
+      </c>
+      <c r="E3052" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3053" spans="1:5">
+      <c r="A3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3053" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3053" t="s">
+        <v>5869</v>
+      </c>
+      <c r="D3053" t="s">
+        <v>5870</v>
+      </c>
+      <c r="E3053" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3054" spans="1:5">
+      <c r="A3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3054" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3054" t="s">
+        <v>5871</v>
+      </c>
+      <c r="D3054" t="s">
+        <v>5872</v>
+      </c>
+      <c r="E3054" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3055" spans="1:5">
+      <c r="A3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3055" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3055" t="s">
+        <v>5873</v>
+      </c>
+      <c r="D3055" t="s">
+        <v>5874</v>
+      </c>
+      <c r="E3055" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3056" spans="1:5">
+      <c r="A3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3056" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3056" t="s">
+        <v>5875</v>
+      </c>
+      <c r="D3056" t="s">
+        <v>5876</v>
+      </c>
+      <c r="E3056" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3057" spans="1:5">
+      <c r="A3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3057" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3057" t="s">
+        <v>5877</v>
+      </c>
+      <c r="D3057" t="s">
+        <v>5878</v>
+      </c>
+      <c r="E3057" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3058" spans="1:5">
+      <c r="A3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3058" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3058" t="s">
+        <v>5879</v>
+      </c>
+      <c r="D3058" t="s">
+        <v>5880</v>
+      </c>
+      <c r="E3058" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3059" spans="1:5">
+      <c r="A3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3059" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3059" t="s">
+        <v>5881</v>
+      </c>
+      <c r="D3059" t="s">
+        <v>5882</v>
+      </c>
+      <c r="E3059" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3060" spans="1:5">
+      <c r="A3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3060" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3060" t="s">
+        <v>5883</v>
+      </c>
+      <c r="D3060" t="s">
+        <v>5884</v>
+      </c>
+      <c r="E3060" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3061" spans="1:5">
+      <c r="A3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3061" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3061" t="s">
+        <v>5885</v>
+      </c>
+      <c r="D3061" t="s">
+        <v>5886</v>
+      </c>
+      <c r="E3061" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3062" spans="1:5">
+      <c r="A3062" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3062" t="s">
+        <v>5887</v>
+      </c>
+      <c r="C3062" t="s">
+        <v>5888</v>
+      </c>
+      <c r="D3062" t="s">
+        <v>5889</v>
+      </c>
+      <c r="E3062" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/it_IT.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/it_IT.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6184">
   <si>
     <t>translation_group</t>
   </si>
@@ -17699,6 +17699,888 @@
                                                     Pensa a ciò che tu come consumatore vorresti sapere, quindi includi queste caratteristiche nella descrizione. Per i vestiti: materiali e vestibilità. Per il cibo: ingredienti e come è stato preparato. I punti elenco sono tuoi amici quando elenchi
                                                    funzionalità: prova a
                                                             limitare ciascuna a 5-8 parole.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>Lingua dell'amministratore</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Limite</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Editor di codice</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>titles</t>
+  </si>
+  <si>
+    <t>titoli</t>
+  </si>
+  <si>
+    <t>Titles 1</t>
+  </si>
+  <si>
+    <t>Titoli 1</t>
+  </si>
+  <si>
+    <t>Titles 2</t>
+  </si>
+  <si>
+    <t>Titoli 2</t>
+  </si>
+  <si>
+    <t>Titles 3</t>
+  </si>
+  <si>
+    <t>Titoli 3</t>
+  </si>
+  <si>
+    <t>Titles 4</t>
+  </si>
+  <si>
+    <t>Titoli 4</t>
+  </si>
+  <si>
+    <t>Titles 5</t>
+  </si>
+  <si>
+    <t>Titoli 5</t>
+  </si>
+  <si>
+    <t>Titles 6</t>
+  </si>
+  <si>
+    <t>Titoli 6</t>
+  </si>
+  <si>
+    <t>Titles 7</t>
+  </si>
+  <si>
+    <t>Titoli 7</t>
+  </si>
+  <si>
+    <t>Titles 8</t>
+  </si>
+  <si>
+    <t>Titoli 8</t>
+  </si>
+  <si>
+    <t>text block</t>
+  </si>
+  <si>
+    <t>blocco di testo</t>
+  </si>
+  <si>
+    <t>Text block 1</t>
+  </si>
+  <si>
+    <t>Blocco di testo 1</t>
+  </si>
+  <si>
+    <t>Text block 2</t>
+  </si>
+  <si>
+    <t>Blocco di testo 2</t>
+  </si>
+  <si>
+    <t>Text block 3</t>
+  </si>
+  <si>
+    <t>Blocco di testo 3</t>
+  </si>
+  <si>
+    <t>Text block 4</t>
+  </si>
+  <si>
+    <t>Blocco di testo 4</t>
+  </si>
+  <si>
+    <t>Text block 5</t>
+  </si>
+  <si>
+    <t>Blocco di testo 5</t>
+  </si>
+  <si>
+    <t>Text block 6</t>
+  </si>
+  <si>
+    <t>Blocco di testo 6</t>
+  </si>
+  <si>
+    <t>Text block 7</t>
+  </si>
+  <si>
+    <t>Blocco di testo 7</t>
+  </si>
+  <si>
+    <t>Text block 8</t>
+  </si>
+  <si>
+    <t>Blocco di testo 8</t>
+  </si>
+  <si>
+    <t>Text block 9</t>
+  </si>
+  <si>
+    <t>Blocco di testo 9</t>
+  </si>
+  <si>
+    <t>Text block 10</t>
+  </si>
+  <si>
+    <t>Blocco di testo 10</t>
+  </si>
+  <si>
+    <t>Text block 11</t>
+  </si>
+  <si>
+    <t>Blocco di testo 11</t>
+  </si>
+  <si>
+    <t>Text block 12</t>
+  </si>
+  <si>
+    <t>Blocco di testo 12</t>
+  </si>
+  <si>
+    <t>Text block 13</t>
+  </si>
+  <si>
+    <t>Blocco di testo 13</t>
+  </si>
+  <si>
+    <t>Text block 14</t>
+  </si>
+  <si>
+    <t>Blocco di testo 14</t>
+  </si>
+  <si>
+    <t>Text block 15</t>
+  </si>
+  <si>
+    <t>Blocco di testo 15</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>caratteristiche</t>
+  </si>
+  <si>
+    <t>Features 1</t>
+  </si>
+  <si>
+    <t>Caratteristiche 1</t>
+  </si>
+  <si>
+    <t>Features 2</t>
+  </si>
+  <si>
+    <t>Caratteristiche 2</t>
+  </si>
+  <si>
+    <t>Features 3</t>
+  </si>
+  <si>
+    <t>Caratteristiche 3</t>
+  </si>
+  <si>
+    <t>Features 4</t>
+  </si>
+  <si>
+    <t>Caratteristiche 4</t>
+  </si>
+  <si>
+    <t>grids</t>
+  </si>
+  <si>
+    <t>griglie</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>menù</t>
+  </si>
+  <si>
+    <t>Menu - skin-1</t>
+  </si>
+  <si>
+    <t>Menu - pelle-1</t>
+  </si>
+  <si>
+    <t>Menu - skin-2</t>
+  </si>
+  <si>
+    <t>Menu - pelle-2</t>
+  </si>
+  <si>
+    <t>Menu - skin-3</t>
+  </si>
+  <si>
+    <t>Menu - pelle-3</t>
+  </si>
+  <si>
+    <t>Menu - skin-4</t>
+  </si>
+  <si>
+    <t>Menu - pelle-4</t>
+  </si>
+  <si>
+    <t>Menu - skin-5</t>
+  </si>
+  <si>
+    <t>Menu - pelle-5</t>
+  </si>
+  <si>
+    <t>footers</t>
+  </si>
+  <si>
+    <t>piè di pagina</t>
+  </si>
+  <si>
+    <t>Footers 1</t>
+  </si>
+  <si>
+    <t>Piè di pagina 1</t>
+  </si>
+  <si>
+    <t>Footers 2</t>
+  </si>
+  <si>
+    <t>Piè di pagina 2</t>
+  </si>
+  <si>
+    <t>Footers 3</t>
+  </si>
+  <si>
+    <t>Piè di pagina 3</t>
+  </si>
+  <si>
+    <t>Footers 4</t>
+  </si>
+  <si>
+    <t>Piè di pagina 4</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>jumbotron</t>
+  </si>
+  <si>
+    <t>Jumbotron 1</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>Pricing 1</t>
+  </si>
+  <si>
+    <t>Prezzi 1</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>Layout predefiniti</t>
+  </si>
+  <si>
+    <t>No Content Here</t>
+  </si>
+  <si>
+    <t>Nessun contenuto qui</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>I campi personalizzati vengono salvati</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Campi esistenti</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Scegli tra i campi esistenti qui sotto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aggiungi nuovi campi</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Aggiungi un nuovo campo personalizzato dall'elenco sottostante</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>I tuoi campi</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Elenco dei campi personalizzati aggiunti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ripetere in verticale </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Famiglia di font</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Sovrapposizione</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Modalità di fusione</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Contenitore</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Tipo di contenitore</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Animazioni</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
+  </si>
+  <si>
+    <t>Ricaricare gli stili</t>
+  </si>
+  <si>
+    <t>Links to</t>
+  </si>
+  <si>
+    <t>Collegamenti a</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Pacchetto in anteprima</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Utilizzo</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Attuale</t>
+  </si>
+  <si>
+    <t>Reorder</t>
+  </si>
+  <si>
+    <t>Riordina</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Reindirizzamento del browser</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integrazione</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Aggiornatore autonomo</t>
+  </si>
+  <si>
+    <t>You need license key to install this package</t>
+  </si>
+  <si>
+    <t>È necessaria la chiave di licenza per installare questo pacchetto</t>
+  </si>
+  <si>
+    <t>This package is premium and you must have a license key to install it</t>
+  </si>
+  <si>
+    <t>Questo pacchetto è premium ed è necessario disporre di una chiave di licenza per installarlo</t>
+  </si>
+  <si>
+    <t>You need license key</t>
+  </si>
+  <si>
+    <t>Hai bisogno di una chiave di licenza</t>
+  </si>
+  <si>
+    <t>License activated</t>
+  </si>
+  <si>
+    <t>Licenza attivata</t>
+  </si>
+  <si>
+    <t>Reloading page</t>
+  </si>
+  <si>
+    <t>Pagina di ricarica</t>
+  </si>
+  <si>
+    <t>License not activated</t>
+  </si>
+  <si>
+    <t>Licenza non attivata</t>
+  </si>
+  <si>
+    <t>System updates</t>
+  </si>
+  <si>
+    <t>Aggiornamenti di sistema</t>
+  </si>
+  <si>
+    <t>Check for system updates</t>
+  </si>
+  <si>
+    <t>Verifica la presenza di aggiornamenti di sistema</t>
+  </si>
+  <si>
+    <t>Back to list</t>
+  </si>
+  <si>
+    <t>Torna alla lista</t>
+  </si>
+  <si>
+    <t>The category must have a name</t>
+  </si>
+  <si>
+    <t>La categoria deve avere un nome</t>
+  </si>
+  <si>
+    <t>Is category hidden?</t>
+  </si>
+  <si>
+    <t>La categoria è nascosta?</t>
+  </si>
+  <si>
+    <t>If you set this to YES this category will be hidden from the website</t>
+  </si>
+  <si>
+    <t>Se lo imposti su SÌ questa categoria sarà nascosta dal sito web</t>
+  </si>
+  <si>
+    <t>template-big</t>
+  </si>
+  <si>
+    <t>Mentioning</t>
+  </si>
+  <si>
+    <t>Menzione</t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Il tuo carrello è vuoto.</t>
+  </si>
+  <si>
+    <t>Results found</t>
+  </si>
+  <si>
+    <t>Risultati trovati</t>
+  </si>
+  <si>
+    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
+  </si>
+  <si>
+    <t>Se scegli la Percentuale dal campo di selezione, verrà calcolata automaticamente dal Prezzo e dal Prezzo Offerta del prodotto.</t>
+  </si>
+  <si>
+    <t>أضف منتج</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>custom.multilanguage.title.en_US.required</t>
+  </si>
+  <si>
+    <t>titolo.multilingua personalizzato.en_US.richiesto</t>
+  </si>
+  <si>
+    <t>values.multilanguage.title.en_US.</t>
+  </si>
+  <si>
+    <t>تحرير المنتج</t>
+  </si>
+  <si>
+    <t>iuiuui</t>
+  </si>
+  <si>
+    <t>Proceed to Checkout</t>
+  </si>
+  <si>
+    <t>Procedere al checkout</t>
+  </si>
+  <si>
+    <t>تحرير آخر</t>
+  </si>
+  <si>
+    <t>Displaying</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>result(s)</t>
+  </si>
+  <si>
+    <t>risultato/i</t>
+  </si>
+  <si>
+    <t>Page Title - Right Breadcrumb</t>
+  </si>
+  <si>
+    <t>Titolo pagina - Pangrattato destro</t>
+  </si>
+  <si>
+    <t>Page Title - Left Breadcrumb</t>
+  </si>
+  <si>
+    <t>Titolo pagina - Pangrattato sinistro</t>
+  </si>
+  <si>
+    <t>Terms of use</t>
+  </si>
+  <si>
+    <t>Condizioni d'uso</t>
+  </si>
+  <si>
+    <t>Delivery and returns</t>
+  </si>
+  <si>
+    <t>Consegna e resi</t>
+  </si>
+  <si>
+    <t>Shipping information</t>
+  </si>
+  <si>
+    <t>Informazioni sulla spedizione</t>
+  </si>
+  <si>
+    <t>About 1</t>
+  </si>
+  <si>
+    <t>Circa 1</t>
+  </si>
+  <si>
+    <t>About 2</t>
+  </si>
+  <si>
+    <t>Circa 2</t>
+  </si>
+  <si>
+    <t>About 3</t>
+  </si>
+  <si>
+    <t>Circa 3</t>
+  </si>
+  <si>
+    <t>Home 1</t>
+  </si>
+  <si>
+    <t>Casa 1</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>casa 2</t>
+  </si>
+  <si>
+    <t>You must click the apply template button to change your template</t>
+  </si>
+  <si>
+    <t>È necessario fare clic sul pulsante Applica modello per modificare il modello</t>
+  </si>
+  <si>
+    <t>Search by criteria</t>
+  </si>
+  <si>
+    <t>Ricerca per criteri</t>
+  </si>
+  <si>
+    <t>Order ID</t>
+  </si>
+  <si>
+    <t>Date from</t>
+  </si>
+  <si>
+    <t>Data da</t>
+  </si>
+  <si>
+    <t>Set the orders from date</t>
+  </si>
+  <si>
+    <t>Imposta gli ordini dalla data</t>
+  </si>
+  <si>
+    <t>Date to</t>
+  </si>
+  <si>
+    <t>Data a</t>
+  </si>
+  <si>
+    <t>Set the orders to date</t>
+  </si>
+  <si>
+    <t>Imposta gli ordini fino ad oggi</t>
+  </si>
+  <si>
+    <t>Order amount from</t>
+  </si>
+  <si>
+    <t>Importo dell'ordine da</t>
+  </si>
+  <si>
+    <t>Show the order with minimum amount</t>
+  </si>
+  <si>
+    <t>Mostra l'ordine con l'importo minimo</t>
+  </si>
+  <si>
+    <t>Order amount to</t>
+  </si>
+  <si>
+    <t>Importo dell'ordine a</t>
+  </si>
+  <si>
+    <t>Show the order with maximum amount</t>
+  </si>
+  <si>
+    <t>Mostra l'ordine con l'importo massimo</t>
+  </si>
+  <si>
+    <t>Search by products...</t>
+  </si>
+  <si>
+    <t>Ricerca per prodotti...</t>
+  </si>
+  <si>
+    <t>Search by products</t>
+  </si>
+  <si>
+    <t>Ricerca per prodotti</t>
+  </si>
+  <si>
+    <t>Payment Status</t>
+  </si>
+  <si>
+    <t>Stato del pagamento</t>
+  </si>
+  <si>
+    <t>Free search by phone, name, email etc...</t>
+  </si>
+  <si>
+    <t>Ricerca gratuita per telefono, nome, email ecc...</t>
+  </si>
+  <si>
+    <t>Submit this criteria</t>
+  </si>
+  <si>
+    <t>Invia questo criterio</t>
+  </si>
+  <si>
+    <t>Reset filter</t>
+  </si>
+  <si>
+    <t>Reimposta filtro</t>
+  </si>
+  <si>
+    <t>Export all</t>
+  </si>
+  <si>
+    <t>Esporta tutto</t>
+  </si>
+  <si>
+    <t>Select sorting</t>
+  </si>
+  <si>
+    <t>Seleziona l'ordinamento</t>
+  </si>
+  <si>
+    <t>Order date</t>
+  </si>
+  <si>
+    <t>Data dell'ordine</t>
+  </si>
+  <si>
+    <t>[New &gt; Old]</t>
+  </si>
+  <si>
+    <t>[Nuovo &gt; Vecchio]</t>
+  </si>
+  <si>
+    <t>[Old &gt; New]</t>
+  </si>
+  <si>
+    <t>[Vecchio &gt; Nuovo]</t>
+  </si>
+  <si>
+    <t>[High &gt; Low]</t>
+  </si>
+  <si>
+    <t>[Alto &gt; Basso]</t>
+  </si>
+  <si>
+    <t>[Low &gt; High]</t>
+  </si>
+  <si>
+    <t>[Basso &gt; Alto]</t>
+  </si>
+  <si>
+    <t>Order completed</t>
+  </si>
+  <si>
+    <t>ordine completato</t>
+  </si>
+  <si>
+    <t>translations from the multilnaguage module have been found in your database.</t>
+  </si>
+  <si>
+    <t>traduzioni dal modulo multilingua sono state trovate nel tuo database.</t>
+  </si>
+  <si>
+    <t>Warning! Changing the default language can break translations on your site.</t>
+  </si>
+  <si>
+    <t>Avvertimento! La modifica della lingua predefinita può interrompere le traduzioni sul tuo sito.</t>
+  </si>
+  <si>
+    <t>Are you sure want to continue?</t>
+  </si>
+  <si>
+    <t>Sei sicuro di voler continuare?</t>
+  </si>
+  <si>
+    <t>Warning! The changing default language maybe will break your site.</t>
+  </si>
+  <si>
+    <t>Avvertimento! La modifica della lingua predefinita potrebbe interrompere il tuo sito.</t>
+  </si>
+  <si>
+    <t>Shipping details</t>
+  </si>
+  <si>
+    <t>Dettagli di spedizione</t>
+  </si>
+  <si>
+    <t>Shipping type</t>
+  </si>
+  <si>
+    <t>the order is not completed yet</t>
+  </si>
+  <si>
+    <t>l'ordine non è ancora completato</t>
+  </si>
+  <si>
+    <t>the order is completed</t>
+  </si>
+  <si>
+    <t>l'ordine è completato</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>Creato a</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>Aggiornato a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick view </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occhiata veloce </t>
+  </si>
+  <si>
+    <t>Replace language values</t>
+  </si>
+  <si>
+    <t>Sostituisci i valori della lingua</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Le traduzioni vengono importate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traduzioni non trovate nel database. Vuoi importare traduzioni? </t>
   </si>
 </sst>
 </file>
@@ -17722,10 +18604,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -17736,7 +18615,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18037,7 +18916,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -70099,8 +70978,2642 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>5890</v>
+      </c>
+      <c r="D3063" t="s">
+        <v>5891</v>
+      </c>
+      <c r="E3063" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>5892</v>
+      </c>
+      <c r="D3064" t="s">
+        <v>5893</v>
+      </c>
+      <c r="E3064" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>5894</v>
+      </c>
+      <c r="D3065" t="s">
+        <v>5895</v>
+      </c>
+      <c r="E3065" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>5896</v>
+      </c>
+      <c r="D3066" t="s">
+        <v>5896</v>
+      </c>
+      <c r="E3066" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>5897</v>
+      </c>
+      <c r="D3067" t="s">
+        <v>5898</v>
+      </c>
+      <c r="E3067" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>5899</v>
+      </c>
+      <c r="D3068" t="s">
+        <v>5900</v>
+      </c>
+      <c r="E3068" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>5901</v>
+      </c>
+      <c r="D3069" t="s">
+        <v>5902</v>
+      </c>
+      <c r="E3069" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>5903</v>
+      </c>
+      <c r="D3070" t="s">
+        <v>5904</v>
+      </c>
+      <c r="E3070" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>5905</v>
+      </c>
+      <c r="D3071" t="s">
+        <v>5906</v>
+      </c>
+      <c r="E3071" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>5907</v>
+      </c>
+      <c r="D3072" t="s">
+        <v>5908</v>
+      </c>
+      <c r="E3072" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>5909</v>
+      </c>
+      <c r="D3073" t="s">
+        <v>5910</v>
+      </c>
+      <c r="E3073" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D3074" t="s">
+        <v>5912</v>
+      </c>
+      <c r="E3074" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>5913</v>
+      </c>
+      <c r="D3075" t="s">
+        <v>5914</v>
+      </c>
+      <c r="E3075" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D3076" t="s">
+        <v>5916</v>
+      </c>
+      <c r="E3076" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D3077" t="s">
+        <v>5918</v>
+      </c>
+      <c r="E3077" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D3078" t="s">
+        <v>5920</v>
+      </c>
+      <c r="E3078" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>5921</v>
+      </c>
+      <c r="D3079" t="s">
+        <v>5922</v>
+      </c>
+      <c r="E3079" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D3080" t="s">
+        <v>5924</v>
+      </c>
+      <c r="E3080" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>5925</v>
+      </c>
+      <c r="D3081" t="s">
+        <v>5926</v>
+      </c>
+      <c r="E3081" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>5927</v>
+      </c>
+      <c r="D3082" t="s">
+        <v>5928</v>
+      </c>
+      <c r="E3082" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>5929</v>
+      </c>
+      <c r="D3083" t="s">
+        <v>5930</v>
+      </c>
+      <c r="E3083" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>5931</v>
+      </c>
+      <c r="D3084" t="s">
+        <v>5932</v>
+      </c>
+      <c r="E3084" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>5933</v>
+      </c>
+      <c r="D3085" t="s">
+        <v>5934</v>
+      </c>
+      <c r="E3085" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>5935</v>
+      </c>
+      <c r="D3086" t="s">
+        <v>5936</v>
+      </c>
+      <c r="E3086" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>5937</v>
+      </c>
+      <c r="D3087" t="s">
+        <v>5938</v>
+      </c>
+      <c r="E3087" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>5939</v>
+      </c>
+      <c r="D3088" t="s">
+        <v>5940</v>
+      </c>
+      <c r="E3088" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>5941</v>
+      </c>
+      <c r="D3089" t="s">
+        <v>5942</v>
+      </c>
+      <c r="E3089" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>5943</v>
+      </c>
+      <c r="D3090" t="s">
+        <v>5944</v>
+      </c>
+      <c r="E3090" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>5945</v>
+      </c>
+      <c r="D3091" t="s">
+        <v>5946</v>
+      </c>
+      <c r="E3091" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D3092" t="s">
+        <v>5948</v>
+      </c>
+      <c r="E3092" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>5949</v>
+      </c>
+      <c r="D3093" t="s">
+        <v>5950</v>
+      </c>
+      <c r="E3093" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>5951</v>
+      </c>
+      <c r="D3094" t="s">
+        <v>5952</v>
+      </c>
+      <c r="E3094" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>5953</v>
+      </c>
+      <c r="D3095" t="s">
+        <v>5954</v>
+      </c>
+      <c r="E3095" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D3096" t="s">
+        <v>5956</v>
+      </c>
+      <c r="E3096" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>5957</v>
+      </c>
+      <c r="D3097" t="s">
+        <v>5958</v>
+      </c>
+      <c r="E3097" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D3098" t="s">
+        <v>5960</v>
+      </c>
+      <c r="E3098" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>5961</v>
+      </c>
+      <c r="D3099" t="s">
+        <v>5962</v>
+      </c>
+      <c r="E3099" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>5963</v>
+      </c>
+      <c r="D3100" t="s">
+        <v>5964</v>
+      </c>
+      <c r="E3100" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>5965</v>
+      </c>
+      <c r="D3101" t="s">
+        <v>5966</v>
+      </c>
+      <c r="E3101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>5967</v>
+      </c>
+      <c r="D3102" t="s">
+        <v>5968</v>
+      </c>
+      <c r="E3102" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>5969</v>
+      </c>
+      <c r="D3103" t="s">
+        <v>5970</v>
+      </c>
+      <c r="E3103" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>5971</v>
+      </c>
+      <c r="D3104" t="s">
+        <v>5972</v>
+      </c>
+      <c r="E3104" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>5973</v>
+      </c>
+      <c r="D3105" t="s">
+        <v>5974</v>
+      </c>
+      <c r="E3105" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>5975</v>
+      </c>
+      <c r="D3106" t="s">
+        <v>5976</v>
+      </c>
+      <c r="E3106" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>5977</v>
+      </c>
+      <c r="D3107" t="s">
+        <v>5978</v>
+      </c>
+      <c r="E3107" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>5979</v>
+      </c>
+      <c r="D3108" t="s">
+        <v>5980</v>
+      </c>
+      <c r="E3108" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109" t="s">
+        <v>5981</v>
+      </c>
+      <c r="D3109" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E3109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110">
+        <v>404</v>
+      </c>
+      <c r="D3110">
+        <v>404</v>
+      </c>
+      <c r="E3110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>5982</v>
+      </c>
+      <c r="D3111" t="s">
+        <v>5982</v>
+      </c>
+      <c r="E3111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D3112" t="s">
+        <v>5983</v>
+      </c>
+      <c r="E3112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>5984</v>
+      </c>
+      <c r="D3113" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E3113" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>5985</v>
+      </c>
+      <c r="D3114" t="s">
+        <v>5986</v>
+      </c>
+      <c r="E3114" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>5987</v>
+      </c>
+      <c r="D3115" t="s">
+        <v>5988</v>
+      </c>
+      <c r="E3115" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>5989</v>
+      </c>
+      <c r="D3116" t="s">
+        <v>5990</v>
+      </c>
+      <c r="E3116" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>5991</v>
+      </c>
+      <c r="D3117" t="s">
+        <v>5992</v>
+      </c>
+      <c r="E3117" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D3118" t="s">
+        <v>5994</v>
+      </c>
+      <c r="E3118" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>5995</v>
+      </c>
+      <c r="D3119" t="s">
+        <v>5996</v>
+      </c>
+      <c r="E3119" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3120" spans="1:5">
+      <c r="A3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3120" t="s">
+        <v>5997</v>
+      </c>
+      <c r="D3120" t="s">
+        <v>5998</v>
+      </c>
+      <c r="E3120" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3121" spans="1:5">
+      <c r="A3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3121" t="s">
+        <v>5999</v>
+      </c>
+      <c r="D3121" t="s">
+        <v>6000</v>
+      </c>
+      <c r="E3121" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3122" spans="1:5">
+      <c r="A3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3122" t="s">
+        <v>6001</v>
+      </c>
+      <c r="D3122" t="s">
+        <v>6002</v>
+      </c>
+      <c r="E3122" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3123" spans="1:5">
+      <c r="A3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3123" t="s">
+        <v>6003</v>
+      </c>
+      <c r="D3123" t="s">
+        <v>6004</v>
+      </c>
+      <c r="E3123" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3124" spans="1:5">
+      <c r="A3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3124" t="s">
+        <v>6005</v>
+      </c>
+      <c r="D3124" t="s">
+        <v>6006</v>
+      </c>
+      <c r="E3124" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3125" spans="1:5">
+      <c r="A3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3125" t="s">
+        <v>6007</v>
+      </c>
+      <c r="D3125" t="s">
+        <v>6008</v>
+      </c>
+      <c r="E3125" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3126" spans="1:5">
+      <c r="A3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3126" t="s">
+        <v>6009</v>
+      </c>
+      <c r="D3126" t="s">
+        <v>6010</v>
+      </c>
+      <c r="E3126" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3127" spans="1:5">
+      <c r="A3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3127" t="s">
+        <v>6011</v>
+      </c>
+      <c r="D3127" t="s">
+        <v>6012</v>
+      </c>
+      <c r="E3127" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3128" spans="1:5">
+      <c r="A3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3128" t="s">
+        <v>6013</v>
+      </c>
+      <c r="D3128" t="s">
+        <v>6014</v>
+      </c>
+      <c r="E3128" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3129" spans="1:5">
+      <c r="A3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3129" t="s">
+        <v>6015</v>
+      </c>
+      <c r="D3129" t="s">
+        <v>6016</v>
+      </c>
+      <c r="E3129" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3130" spans="1:5">
+      <c r="A3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3130" t="s">
+        <v>6017</v>
+      </c>
+      <c r="D3130" t="s">
+        <v>6018</v>
+      </c>
+      <c r="E3130" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3131" spans="1:5">
+      <c r="A3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3131" t="s">
+        <v>6019</v>
+      </c>
+      <c r="D3131" t="s">
+        <v>6020</v>
+      </c>
+      <c r="E3131" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3132" spans="1:5">
+      <c r="A3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3132" t="s">
+        <v>6021</v>
+      </c>
+      <c r="D3132" t="s">
+        <v>6022</v>
+      </c>
+      <c r="E3132" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3133" spans="1:5">
+      <c r="A3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3133" t="s">
+        <v>6023</v>
+      </c>
+      <c r="D3133" t="s">
+        <v>6024</v>
+      </c>
+      <c r="E3133" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3134" spans="1:5">
+      <c r="A3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3134" t="s">
+        <v>6025</v>
+      </c>
+      <c r="D3134" t="s">
+        <v>6025</v>
+      </c>
+      <c r="E3134" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3135" spans="1:5">
+      <c r="A3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3135" t="s">
+        <v>6026</v>
+      </c>
+      <c r="D3135" t="s">
+        <v>6027</v>
+      </c>
+      <c r="E3135" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3136" spans="1:5">
+      <c r="A3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3136" t="s">
+        <v>6028</v>
+      </c>
+      <c r="D3136" t="s">
+        <v>6029</v>
+      </c>
+      <c r="E3136" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3137" spans="1:5">
+      <c r="A3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3137" t="s">
+        <v>6030</v>
+      </c>
+      <c r="D3137" t="s">
+        <v>6031</v>
+      </c>
+      <c r="E3137" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3138" spans="1:5">
+      <c r="A3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3138" t="s">
+        <v>6032</v>
+      </c>
+      <c r="D3138" t="s">
+        <v>6033</v>
+      </c>
+      <c r="E3138" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3139" spans="1:5">
+      <c r="A3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3139" t="s">
+        <v>6034</v>
+      </c>
+      <c r="D3139" t="s">
+        <v>6035</v>
+      </c>
+      <c r="E3139" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3140" spans="1:5">
+      <c r="A3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3140" t="s">
+        <v>6036</v>
+      </c>
+      <c r="D3140" t="s">
+        <v>6037</v>
+      </c>
+      <c r="E3140" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3141" spans="1:5">
+      <c r="A3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3141" t="s">
+        <v>6038</v>
+      </c>
+      <c r="D3141" t="s">
+        <v>6039</v>
+      </c>
+      <c r="E3141" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3142" spans="1:5">
+      <c r="A3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3142" t="s">
+        <v>6040</v>
+      </c>
+      <c r="D3142" t="s">
+        <v>6041</v>
+      </c>
+      <c r="E3142" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3143" spans="1:5">
+      <c r="A3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3143" t="s">
+        <v>6042</v>
+      </c>
+      <c r="D3143" t="s">
+        <v>6043</v>
+      </c>
+      <c r="E3143" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3144" spans="1:5">
+      <c r="A3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3144" t="s">
+        <v>6044</v>
+      </c>
+      <c r="D3144" t="s">
+        <v>6045</v>
+      </c>
+      <c r="E3144" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3145" spans="1:5">
+      <c r="A3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3145" t="s">
+        <v>6046</v>
+      </c>
+      <c r="D3145" t="s">
+        <v>6047</v>
+      </c>
+      <c r="E3145" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3146" spans="1:5">
+      <c r="A3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3146" t="s">
+        <v>6048</v>
+      </c>
+      <c r="D3146" t="s">
+        <v>6049</v>
+      </c>
+      <c r="E3146" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3147" spans="1:5">
+      <c r="A3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3147" t="s">
+        <v>6050</v>
+      </c>
+      <c r="D3147" t="s">
+        <v>6051</v>
+      </c>
+      <c r="E3147" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3148" spans="1:5">
+      <c r="A3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3148" t="s">
+        <v>2706</v>
+      </c>
+      <c r="D3148" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E3148" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3149" spans="1:5">
+      <c r="A3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3149" t="s">
+        <v>6052</v>
+      </c>
+      <c r="D3149" t="s">
+        <v>6053</v>
+      </c>
+      <c r="E3149" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3150" spans="1:5">
+      <c r="A3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3150" t="s">
+        <v>6054</v>
+      </c>
+      <c r="D3150" t="s">
+        <v>6055</v>
+      </c>
+      <c r="E3150" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3151" spans="1:5">
+      <c r="A3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3151" t="s">
+        <v>6056</v>
+      </c>
+      <c r="D3151" t="s">
+        <v>6057</v>
+      </c>
+      <c r="E3151" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3152" spans="1:5">
+      <c r="A3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3152" t="s">
+        <v>6058</v>
+      </c>
+      <c r="D3152" t="s">
+        <v>6059</v>
+      </c>
+      <c r="E3152" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3153" spans="1:5">
+      <c r="A3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3153" t="s">
+        <v>6060</v>
+      </c>
+      <c r="D3153" t="s">
+        <v>6061</v>
+      </c>
+      <c r="E3153" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3154" spans="1:5">
+      <c r="A3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3154" t="s">
+        <v>6062</v>
+      </c>
+      <c r="D3154" t="s">
+        <v>6063</v>
+      </c>
+      <c r="E3154" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3155" spans="1:5">
+      <c r="A3155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3155" t="s">
+        <v>6064</v>
+      </c>
+      <c r="C3155" t="s">
+        <v>6065</v>
+      </c>
+      <c r="D3155" t="s">
+        <v>6066</v>
+      </c>
+      <c r="E3155" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3156" spans="1:5">
+      <c r="A3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3156" t="s">
+        <v>6067</v>
+      </c>
+      <c r="D3156" t="s">
+        <v>6068</v>
+      </c>
+      <c r="E3156" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3157" spans="1:5">
+      <c r="A3157" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3157" t="s">
+        <v>5887</v>
+      </c>
+      <c r="C3157" t="s">
+        <v>6069</v>
+      </c>
+      <c r="D3157" t="s">
+        <v>6070</v>
+      </c>
+      <c r="E3157" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3158" spans="1:5">
+      <c r="A3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3158" t="s">
+        <v>6071</v>
+      </c>
+      <c r="D3158" t="s">
+        <v>6072</v>
+      </c>
+      <c r="E3158" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3159" spans="1:5">
+      <c r="A3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3159" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3159" t="s">
+        <v>6073</v>
+      </c>
+      <c r="D3159" t="s">
+        <v>6073</v>
+      </c>
+      <c r="E3159" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3160" spans="1:5">
+      <c r="A3160" t="s">
+        <v>6074</v>
+      </c>
+      <c r="B3160" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3160" t="s">
+        <v>6075</v>
+      </c>
+      <c r="D3160" t="s">
+        <v>6076</v>
+      </c>
+      <c r="E3160" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3161" spans="1:5">
+      <c r="A3161" t="s">
+        <v>6074</v>
+      </c>
+      <c r="B3161" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3161" t="s">
+        <v>6077</v>
+      </c>
+      <c r="D3161" t="s">
+        <v>6077</v>
+      </c>
+      <c r="E3161" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3162" spans="1:5">
+      <c r="A3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3162" t="s">
+        <v>6078</v>
+      </c>
+      <c r="D3162" t="s">
+        <v>6078</v>
+      </c>
+      <c r="E3162" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3163" spans="1:5">
+      <c r="A3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3163" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3163" t="s">
+        <v>6079</v>
+      </c>
+      <c r="D3163" t="s">
+        <v>6079</v>
+      </c>
+      <c r="E3163" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3164" spans="1:5">
+      <c r="A3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3164" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3164" t="s">
+        <v>6080</v>
+      </c>
+      <c r="D3164" t="s">
+        <v>6081</v>
+      </c>
+      <c r="E3164" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3165" spans="1:5">
+      <c r="A3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3165" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3165" t="s">
+        <v>6082</v>
+      </c>
+      <c r="D3165" t="s">
+        <v>6082</v>
+      </c>
+      <c r="E3165" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3166" spans="1:5">
+      <c r="A3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3166" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3166" t="s">
+        <v>6083</v>
+      </c>
+      <c r="D3166" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E3166" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3167" spans="1:5">
+      <c r="A3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3167" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3167" t="s">
+        <v>6084</v>
+      </c>
+      <c r="D3167" t="s">
+        <v>6085</v>
+      </c>
+      <c r="E3167" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3168" spans="1:5">
+      <c r="A3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3168" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3168" t="s">
+        <v>6086</v>
+      </c>
+      <c r="D3168" t="s">
+        <v>6087</v>
+      </c>
+      <c r="E3168" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3169" spans="1:5">
+      <c r="A3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3169" t="s">
+        <v>6088</v>
+      </c>
+      <c r="D3169" t="s">
+        <v>6089</v>
+      </c>
+      <c r="E3169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3170" spans="1:5">
+      <c r="A3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3170" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3170" t="s">
+        <v>6090</v>
+      </c>
+      <c r="D3170" t="s">
+        <v>6091</v>
+      </c>
+      <c r="E3170" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3171" spans="1:5">
+      <c r="A3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3171" t="s">
+        <v>6092</v>
+      </c>
+      <c r="D3171" t="s">
+        <v>6093</v>
+      </c>
+      <c r="E3171" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3172" spans="1:5">
+      <c r="A3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3172" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3172" t="s">
+        <v>6094</v>
+      </c>
+      <c r="D3172" t="s">
+        <v>6095</v>
+      </c>
+      <c r="E3172" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3173" spans="1:5">
+      <c r="A3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3173" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3173" t="s">
+        <v>6096</v>
+      </c>
+      <c r="D3173" t="s">
+        <v>6097</v>
+      </c>
+      <c r="E3173" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3174" spans="1:5">
+      <c r="A3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3174" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3174" t="s">
+        <v>6098</v>
+      </c>
+      <c r="D3174" t="s">
+        <v>6099</v>
+      </c>
+      <c r="E3174" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3175" spans="1:5">
+      <c r="A3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3175" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3175" t="s">
+        <v>6100</v>
+      </c>
+      <c r="D3175" t="s">
+        <v>6101</v>
+      </c>
+      <c r="E3175" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3176" spans="1:5">
+      <c r="A3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3176" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3176" t="s">
+        <v>6102</v>
+      </c>
+      <c r="D3176" t="s">
+        <v>6103</v>
+      </c>
+      <c r="E3176" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3177" spans="1:5">
+      <c r="A3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3177" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3177" t="s">
+        <v>6104</v>
+      </c>
+      <c r="D3177" t="s">
+        <v>6105</v>
+      </c>
+      <c r="E3177" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3178" spans="1:5">
+      <c r="A3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3178" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3178" t="s">
+        <v>6106</v>
+      </c>
+      <c r="D3178" t="s">
+        <v>6107</v>
+      </c>
+      <c r="E3178" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3179" spans="1:5">
+      <c r="A3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3179" t="s">
+        <v>6108</v>
+      </c>
+      <c r="D3179" t="s">
+        <v>6109</v>
+      </c>
+      <c r="E3179" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3180" spans="1:5">
+      <c r="A3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3180" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3180" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D3180" t="s">
+        <v>6111</v>
+      </c>
+      <c r="E3180" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3181" spans="1:5">
+      <c r="A3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3181" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3181" t="s">
+        <v>6112</v>
+      </c>
+      <c r="D3181" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E3181" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3182" spans="1:5">
+      <c r="A3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3182" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3182" t="s">
+        <v>6113</v>
+      </c>
+      <c r="D3182" t="s">
+        <v>6114</v>
+      </c>
+      <c r="E3182" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3183" spans="1:5">
+      <c r="A3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3183" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3183" t="s">
+        <v>6115</v>
+      </c>
+      <c r="D3183" t="s">
+        <v>6116</v>
+      </c>
+      <c r="E3183" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3184" spans="1:5">
+      <c r="A3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3184" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3184" t="s">
+        <v>6117</v>
+      </c>
+      <c r="D3184" t="s">
+        <v>6118</v>
+      </c>
+      <c r="E3184" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3185" spans="1:5">
+      <c r="A3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3185" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3185" t="s">
+        <v>6119</v>
+      </c>
+      <c r="D3185" t="s">
+        <v>6120</v>
+      </c>
+      <c r="E3185" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3186" spans="1:5">
+      <c r="A3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3186" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3186" t="s">
+        <v>6121</v>
+      </c>
+      <c r="D3186" t="s">
+        <v>6122</v>
+      </c>
+      <c r="E3186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3187" spans="1:5">
+      <c r="A3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3187" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3187" t="s">
+        <v>6123</v>
+      </c>
+      <c r="D3187" t="s">
+        <v>6124</v>
+      </c>
+      <c r="E3187" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3188" spans="1:5">
+      <c r="A3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3188" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3188" t="s">
+        <v>6125</v>
+      </c>
+      <c r="D3188" t="s">
+        <v>6126</v>
+      </c>
+      <c r="E3188" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3189" spans="1:5">
+      <c r="A3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3189" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3189" t="s">
+        <v>6127</v>
+      </c>
+      <c r="D3189" t="s">
+        <v>6128</v>
+      </c>
+      <c r="E3189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3190" spans="1:5">
+      <c r="A3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3190" t="s">
+        <v>6129</v>
+      </c>
+      <c r="D3190" t="s">
+        <v>6130</v>
+      </c>
+      <c r="E3190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3191" spans="1:5">
+      <c r="A3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3191" t="s">
+        <v>6131</v>
+      </c>
+      <c r="D3191" t="s">
+        <v>6132</v>
+      </c>
+      <c r="E3191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3192" spans="1:5">
+      <c r="A3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3192" t="s">
+        <v>6133</v>
+      </c>
+      <c r="D3192" t="s">
+        <v>6134</v>
+      </c>
+      <c r="E3192" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3193" spans="1:5">
+      <c r="A3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3193" t="s">
+        <v>6135</v>
+      </c>
+      <c r="D3193" t="s">
+        <v>6136</v>
+      </c>
+      <c r="E3193" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3194" spans="1:5">
+      <c r="A3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3194" t="s">
+        <v>6137</v>
+      </c>
+      <c r="D3194" t="s">
+        <v>6138</v>
+      </c>
+      <c r="E3194" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3195" spans="1:5">
+      <c r="A3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3195" t="s">
+        <v>6139</v>
+      </c>
+      <c r="D3195" t="s">
+        <v>6140</v>
+      </c>
+      <c r="E3195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3196" spans="1:5">
+      <c r="A3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3196" t="s">
+        <v>6141</v>
+      </c>
+      <c r="D3196" t="s">
+        <v>6142</v>
+      </c>
+      <c r="E3196" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3197" spans="1:5">
+      <c r="A3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3197" t="s">
+        <v>6143</v>
+      </c>
+      <c r="D3197" t="s">
+        <v>6144</v>
+      </c>
+      <c r="E3197" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3198" spans="1:5">
+      <c r="A3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3198" t="s">
+        <v>6145</v>
+      </c>
+      <c r="D3198" t="s">
+        <v>6146</v>
+      </c>
+      <c r="E3198" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3199" spans="1:5">
+      <c r="A3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3199" t="s">
+        <v>6147</v>
+      </c>
+      <c r="D3199" t="s">
+        <v>6148</v>
+      </c>
+      <c r="E3199" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3200" spans="1:5">
+      <c r="A3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3200" t="s">
+        <v>6149</v>
+      </c>
+      <c r="D3200" t="s">
+        <v>6150</v>
+      </c>
+      <c r="E3200" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3201" spans="1:5">
+      <c r="A3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3201" t="s">
+        <v>6151</v>
+      </c>
+      <c r="D3201" t="s">
+        <v>6152</v>
+      </c>
+      <c r="E3201" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3202" spans="1:5">
+      <c r="A3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3202" t="s">
+        <v>6153</v>
+      </c>
+      <c r="D3202" t="s">
+        <v>6154</v>
+      </c>
+      <c r="E3202" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3203" spans="1:5">
+      <c r="A3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3203" t="s">
+        <v>6155</v>
+      </c>
+      <c r="D3203" t="s">
+        <v>6156</v>
+      </c>
+      <c r="E3203" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3204" spans="1:5">
+      <c r="A3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3204" t="s">
+        <v>6157</v>
+      </c>
+      <c r="D3204" t="s">
+        <v>6158</v>
+      </c>
+      <c r="E3204" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3205" spans="1:5">
+      <c r="A3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3205" t="s">
+        <v>6159</v>
+      </c>
+      <c r="D3205" t="s">
+        <v>6160</v>
+      </c>
+      <c r="E3205" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3206" spans="1:5">
+      <c r="A3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3206" t="s">
+        <v>6161</v>
+      </c>
+      <c r="D3206" t="s">
+        <v>6162</v>
+      </c>
+      <c r="E3206" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3207" spans="1:5">
+      <c r="A3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3207" t="s">
+        <v>6163</v>
+      </c>
+      <c r="D3207" t="s">
+        <v>6164</v>
+      </c>
+      <c r="E3207" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3208" spans="1:5">
+      <c r="A3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3208" t="s">
+        <v>6165</v>
+      </c>
+      <c r="D3208" t="s">
+        <v>6166</v>
+      </c>
+      <c r="E3208" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3209" spans="1:5">
+      <c r="A3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3209" t="s">
+        <v>6167</v>
+      </c>
+      <c r="D3209" t="s">
+        <v>4327</v>
+      </c>
+      <c r="E3209" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3210" spans="1:5">
+      <c r="A3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3210" t="s">
+        <v>6168</v>
+      </c>
+      <c r="D3210" t="s">
+        <v>6169</v>
+      </c>
+      <c r="E3210" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3211" spans="1:5">
+      <c r="A3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3211" t="s">
+        <v>6170</v>
+      </c>
+      <c r="D3211" t="s">
+        <v>6171</v>
+      </c>
+      <c r="E3211" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3212" spans="1:5">
+      <c r="A3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3212" t="s">
+        <v>6172</v>
+      </c>
+      <c r="D3212" t="s">
+        <v>6173</v>
+      </c>
+      <c r="E3212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3213" spans="1:5">
+      <c r="A3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3213" t="s">
+        <v>6174</v>
+      </c>
+      <c r="D3213" t="s">
+        <v>6175</v>
+      </c>
+      <c r="E3213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3214" spans="1:5">
+      <c r="A3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3214" t="s">
+        <v>6176</v>
+      </c>
+      <c r="D3214" t="s">
+        <v>6177</v>
+      </c>
+      <c r="E3214" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3215" spans="1:5">
+      <c r="A3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3215" t="s">
+        <v>6178</v>
+      </c>
+      <c r="D3215" t="s">
+        <v>6179</v>
+      </c>
+      <c r="E3215" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3216" spans="1:5">
+      <c r="A3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3216" t="s">
+        <v>6180</v>
+      </c>
+      <c r="D3216" t="s">
+        <v>6181</v>
+      </c>
+      <c r="E3216" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3217" spans="1:5">
+      <c r="A3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3217" t="s">
+        <v>6182</v>
+      </c>
+      <c r="D3217" t="s">
+        <v>6183</v>
+      </c>
+      <c r="E3217" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -70112,5 +73625,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>
--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/it_IT.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/it_IT.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5997">
   <si>
     <t>translation_group</t>
   </si>
@@ -17100,13 +17100,13 @@
     <t>Welcome to Microweber</t>
   </si>
   <si>
-    <t>Benvenuto in Microweber</t>
+    <t>Benvenuti in Microweber</t>
   </si>
   <si>
     <t>Use Microweber to build your website, online shop or blog.</t>
   </si>
   <si>
-    <t>Usa Microweber per creare il tuo sito web, negozio online o blog.</t>
+    <t>Usa Microweber per costruire il tuo sito web, negozio online o blog.</t>
   </si>
   <si>
     <t>Create and edit content, sell online, manage orders and clients.</t>
@@ -17121,13 +17121,10 @@
     <t>Abandoned cart's</t>
   </si>
   <si>
-    <t>Carrello abbandonato</t>
-  </si>
-  <si>
     <t>You are using this template.</t>
   </si>
   <si>
-    <t>Stai usando questo modello.</t>
+    <t>Stai utilizzando questo modello.</t>
   </si>
   <si>
     <t>The change will affect only the current page.</t>
@@ -17157,13 +17154,13 @@
     <t>Deliver messages related with new registration, password resets and others system functionalities.</t>
   </si>
   <si>
-    <t>Invia messaggi relativi a nuova registrazione, reimpostazione della password e altre funzionalità di sistema.</t>
+    <t>Invia messaggi relativi a nuove registrazioni, reimpostazioni di password e altre funzionalità di sistema.</t>
   </si>
   <si>
     <t>From e-mail address</t>
   </si>
   <si>
-    <t>Dall'indirizzo e-mail</t>
+    <t>Dall'indirizzo di posta elettronica</t>
   </si>
   <si>
     <t>Ex. Your Website Name</t>
@@ -17181,13 +17178,13 @@
     <t>Set up your email provider.</t>
   </si>
   <si>
-    <t>Configura il tuo provider di posta elettronica.</t>
+    <t>Imposta il tuo provider di posta elettronica.</t>
   </si>
   <si>
     <t>The general e-mail provider will deliver all messages related with the website. Including system messages and contact form messages.</t>
   </si>
   <si>
-    <t>Il provider di posta elettronica generale recapiterà tutti i messaggi relativi al sito web. Compresi i messaggi di sistema e i messaggi del modulo di contatto.</t>
+    <t>Il provider di posta elettronica generale consegnerà tutti i messaggi relativi al sito web. Compresi i messaggi di sistema e i messaggi del modulo di contatto.</t>
   </si>
   <si>
     <t>Website Logo</t>
@@ -17211,30 +17208,33 @@
     <t>Website Favicon</t>
   </si>
   <si>
-    <t>Sito web Favicon</t>
+    <t>Favicon del sito web</t>
   </si>
   <si>
     <t>Changing default language..</t>
   </si>
   <si>
-    <t>Modifica della lingua predefinita ...</t>
+    <t>Modifica della lingua predefinita..</t>
   </si>
   <si>
     <t>Clear cache..</t>
   </si>
   <si>
-    <t>Cancella cache ..</t>
+    <t>Cancella cache..</t>
   </si>
   <si>
     <t>Install Multilanguage Module</t>
   </si>
   <si>
-    <t>Installa il modulo multilingua</t>
+    <t>Installa il modulo multilingue</t>
   </si>
   <si>
     <t>Users can register with temporary emails like - Mailinator, MailDrop, Guerrilla...s</t>
   </si>
   <si>
+    <t>Gli utenti possono registrarsi con e-mail temporanee come - Mailinator, MailDrop, Guerrillas</t>
+  </si>
+  <si>
     <t>Register users can automatically receive an automatic email from you. See the settings and post your messages.</t>
   </si>
   <si>
@@ -17244,19 +17244,19 @@
     <t>Send email on new user registration to admin users</t>
   </si>
   <si>
-    <t>Invia e-mail alla registrazione di un nuovo utente agli utenti amministratori</t>
+    <t>Invia email alla registrazione di un nuovo utente agli utenti amministratori</t>
   </si>
   <si>
     <t>Do you want adminitrators to receive an e-mail when new user is registered?</t>
   </si>
   <si>
-    <t>Vuoi che gli amministratori ricevano un'e-mail quando un nuovo utente è registrato?</t>
+    <t>Vuoi che gli amministratori ricevano un'e-mail quando viene registrato un nuovo utente?</t>
   </si>
   <si>
     <t>Microweber is free open source drag and drop website builder and CMS. It is under MIT license and we use Laravel PHP framework</t>
   </si>
   <si>
-    <t>Microweber è un generatore di siti Web drag and drop e CMS open source gratuito. È sotto licenza MIT e utilizziamo il framework PHP Laravel</t>
+    <t>Microweber è un generatore di siti Web drag and drop open source gratuito e CMS. È sotto licenza MIT e utilizziamo il framework Laravel PHP</t>
   </si>
   <si>
     <t>A Slider</t>
@@ -17298,7 +17298,7 @@
     <t>Setup your system settings here.</t>
   </si>
   <si>
-    <t>Configura le impostazioni di sistema qui.</t>
+    <t>Configura qui le impostazioni di sistema.</t>
   </si>
   <si>
     <t>Global contact form settings</t>
@@ -17310,7 +17310,7 @@
     <t>E-mail sending options</t>
   </si>
   <si>
-    <t>Opzioni di invio di posta elettronica</t>
+    <t>Opzioni di invio e-mail</t>
   </si>
   <si>
     <t>Global sender</t>
@@ -17322,7 +17322,7 @@
     <t>Use custom sender settings</t>
   </si>
   <si>
-    <t>Usa impostazioni mittente personalizzate</t>
+    <t>Utilizza le impostazioni del mittente personalizzate</t>
   </si>
   <si>
     <t>Use custom sender settings for the global contact forms.</t>
@@ -17334,7 +17334,7 @@
     <t>By default we will use website system e-mail settings.</t>
   </si>
   <si>
-    <t>Per impostazione predefinita, utilizzeremo le impostazioni di posta elettronica del sistema del sito web.</t>
+    <t>Per impostazione predefinita, utilizzeremo le impostazioni e-mail del sistema del sito web.</t>
   </si>
   <si>
     <t>You can change the system e-mail settings here.</t>
@@ -17358,19 +17358,19 @@
     <t>To e-mail addresses</t>
   </si>
   <si>
-    <t>Agli indirizzi di posta elettronica</t>
+    <t>A indirizzi di posta elettronica</t>
   </si>
   <si>
     <t>E-mail address of the receivers seperated with coma.</t>
   </si>
   <si>
-    <t>Indirizzo di posta elettronica dei destinatari separato dal coma.</t>
+    <t>Indirizzo e-mail dei destinatari separato da coma.</t>
   </si>
   <si>
     <t>Contact your hosting provider to enable PHP SOAP extension.</t>
   </si>
   <si>
-    <t>Contatta il tuo provider di hosting per abilitare l'estensione SOAP PHP.</t>
+    <t>Contatta il tuo provider di hosting per abilitare l'estensione PHP SOAP.</t>
   </si>
   <si>
     <t>Elements</t>
@@ -17400,19 +17400,22 @@
     <t>Custom</t>
   </si>
   <si>
-    <t>Personalizzato</t>
+    <t>Costume</t>
   </si>
   <si>
     <t>bxSlider</t>
   </si>
   <si>
+    <t>bx Slider</t>
+  </si>
+  <si>
     <t>Schema.org</t>
   </si>
   <si>
     <t>ProductsV2</t>
   </si>
   <si>
-    <t>Prodotti V2</t>
+    <t>ProdottiV2</t>
   </si>
   <si>
     <t>Timeline</t>
@@ -17430,6 +17433,9 @@
     <t>Number of the visible testimonials</t>
   </si>
   <si>
+    <t>Numero delle testimonianze visibili</t>
+  </si>
+  <si>
     <t>Module template has changed</t>
   </si>
   <si>
@@ -17439,7 +17445,7 @@
     <t>Content versions</t>
   </si>
   <si>
-    <t>Versioni del contenuto</t>
+    <t>Versioni di contenuto</t>
   </si>
   <si>
     <t>Clear Cache</t>
@@ -17460,7 +17466,7 @@
     <t>Checked List</t>
   </si>
   <si>
-    <t>Elenco controllato</t>
+    <t>Elenco verificato</t>
   </si>
   <si>
     <t>Background Text</t>
@@ -17529,6 +17535,9 @@
     <t>Add / Edit fields of the form using the custom fields</t>
   </si>
   <si>
+    <t>Aggiungere/modificare i campi del modulo utilizzando i campi personalizzati</t>
+  </si>
+  <si>
     <t>Current contact form settings</t>
   </si>
   <si>
@@ -17544,7 +17553,7 @@
     <t>What is the name of this contact form?</t>
   </si>
   <si>
-    <t>Qual è il nome di questo modulo di contatto?</t>
+    <t>Come si chiama questo modulo di contatto?</t>
   </si>
   <si>
     <t>Receivers</t>
@@ -17562,7 +17571,7 @@
     <t>Use custom receivers settings for the current contact form.</t>
   </si>
   <si>
-    <t>Utilizza le impostazioni personalizzate dei ricevitori per il modulo di contatto corrente.</t>
+    <t>Utilizza le impostazioni dei destinatari personalizzati per il modulo di contatto corrente.</t>
   </si>
   <si>
     <t>By default we will use contact form global settings.</t>
@@ -17592,13 +17601,13 @@
     <t>Allow users to receive "Thank you emails after subscription."</t>
   </si>
   <si>
-    <t>Consenti agli utenti di ricevere "email di ringraziamento dopo l'iscrizione".</t>
+    <t>Consenti agli utenti di ricevere "e-mail di ringraziamento dopo l'iscrizione".</t>
   </si>
   <si>
     <t>Auto respond subject</t>
   </si>
   <si>
-    <t>Soggetto con risposta automatica</t>
+    <t>Soggetto a risposta automatica</t>
   </si>
   <si>
     <t>Auto responders allows you to set up automated replies to incoming email</t>
@@ -17613,13 +17622,13 @@
     <t>Auto respond e-mail sent back to the user</t>
   </si>
   <si>
-    <t>E-mail di risposta automatica inviata all'utente</t>
+    <t>Rispondi automaticamente all'e-mail inviata all'utente</t>
   </si>
   <si>
     <t>Auto respond custom sender</t>
   </si>
   <si>
-    <t>Mittente personalizzato con risposta automatica</t>
+    <t>Rispondi automaticamente al mittente personalizzato</t>
   </si>
   <si>
     <t>Use custom sender settings for the current contact form.</t>
@@ -17643,7 +17652,7 @@
     <t>Auto respond reply to e-mail</t>
   </si>
   <si>
-    <t>Risposta automatica risposta a e-mail</t>
+    <t>Rispondi automaticamente alla posta elettronica</t>
   </si>
   <si>
     <t>When the user receive the auto respond message they can response back to reply to email.</t>
@@ -17655,13 +17664,10 @@
     <t>Auto respond e-mail attachments</t>
   </si>
   <si>
-    <t>Rispondi automaticamente agli allegati di posta elettronica</t>
+    <t>Rispondi automaticamente agli allegati e-mail</t>
   </si>
   <si>
     <t>If you want to attach og images, you must upload them to gallery from 'Add media'</t>
-  </si>
-  <si>
-    <t>Se desideri allegare immagini, devi caricarle nella galleria da "Aggiungi media"</t>
   </si>
   <si>
     <t>You don’t have any posts yet</t>
@@ -17693,11 +17699,11 @@
                                                             limit each one to 5-8 words.</t>
   </si>
   <si>
-    <t>Come scrivere descrizioni di prodotti che vendono
-                                                    Una delle cose migliori che puoi fare per rendere il tuo negozio di successo è investire del tempo nella scrittura di ottime descrizioni di prodotti. Desideri fornire informazioni dettagliate ma concise che invogliano i potenziali clienti ad acquistare.
+    <t>Come scrivere descrizioni di prodotti che vendano
+                                                    Una delle cose migliori che puoi fare per far sì che il tuo negozio abbia successo è investire un po' di tempo nella scrittura di fantastiche descrizioni di prodotti. Vuoi fornire informazioni dettagliate ma concise che attireranno i potenziali clienti all'acquisto.
                                                     Pensa come un consumatore
-                                                    Pensa a ciò che tu come consumatore vorresti sapere, quindi includi queste caratteristiche nella descrizione. Per i vestiti: materiali e vestibilità. Per il cibo: ingredienti e come è stato preparato. I punti elenco sono tuoi amici quando elenchi
-                                                   funzionalità: prova a
+                                                    Pensa a ciò che tu come consumatore vorresti sapere, quindi includi queste caratteristiche nella tua descrizione. Per i vestiti: materiali e vestibilità. Per il cibo: ingredienti e come è stato preparato. I punti elenco sono i tuoi amici quando elenchi
+                                                   caratteristiche: prova a
                                                             limitare ciascuna a 5-8 parole.</t>
   </si>
   <si>
@@ -17707,349 +17713,271 @@
     <t>Lingua dell'amministratore</t>
   </si>
   <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Aggiungi sottopagina</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Categoria eliminata</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Categorie di ricerca</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Crea contenuti</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Carta</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Qualsiasi</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>ID Desc</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
     <t>Limit</t>
   </si>
   <si>
     <t>Limite</t>
   </si>
   <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Non hai prodotti in</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>Torna a</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>categorie</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>I campi personalizzati vengono salvati</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Campi esistenti</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t>Scegli tra i tuoi campi esistenti qui sotto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aggiungi nuovi campi</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Aggiungi un nuovo campo personalizzato dall'elenco qui sotto</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>I tuoi campi</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Elenco dei campi personalizzati aggiunti</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Reindirizzamento del browser</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Integrazione</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Strumento Importa Esporta</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Programma di aggiornamento autonomo</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Anteprima del pacchetto</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Utilizzo</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Attuale</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Esprimere</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Prima classe</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Clicca e ritira</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Sfondo video</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>Multi lingua</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Puoi attivare il modulo Multilingua per utilizzare più lingue</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Modalità multilingue</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Attiva la modalità multilingua per avere più lingue per i tuoi contenuti.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t>Le traduzioni vengono importate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traduzioni non trovate nel database. Vuoi importare le traduzioni? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Il tuo carrello è vuoto.</t>
+  </si>
+  <si>
     <t>Code Editor</t>
   </si>
   <si>
     <t>Editor di codice</t>
   </si>
   <si>
-    <t>Blog</t>
-  </si>
-  <si>
-    <t>titles</t>
-  </si>
-  <si>
-    <t>titoli</t>
-  </si>
-  <si>
-    <t>Titles 1</t>
-  </si>
-  <si>
-    <t>Titoli 1</t>
-  </si>
-  <si>
-    <t>Titles 2</t>
-  </si>
-  <si>
-    <t>Titoli 2</t>
-  </si>
-  <si>
-    <t>Titles 3</t>
-  </si>
-  <si>
-    <t>Titoli 3</t>
-  </si>
-  <si>
-    <t>Titles 4</t>
-  </si>
-  <si>
-    <t>Titoli 4</t>
-  </si>
-  <si>
-    <t>Titles 5</t>
-  </si>
-  <si>
-    <t>Titoli 5</t>
-  </si>
-  <si>
-    <t>Titles 6</t>
-  </si>
-  <si>
-    <t>Titoli 6</t>
-  </si>
-  <si>
-    <t>Titles 7</t>
-  </si>
-  <si>
-    <t>Titoli 7</t>
-  </si>
-  <si>
-    <t>Titles 8</t>
-  </si>
-  <si>
-    <t>Titoli 8</t>
-  </si>
-  <si>
-    <t>text block</t>
-  </si>
-  <si>
-    <t>blocco di testo</t>
-  </si>
-  <si>
-    <t>Text block 1</t>
-  </si>
-  <si>
-    <t>Blocco di testo 1</t>
-  </si>
-  <si>
-    <t>Text block 2</t>
-  </si>
-  <si>
-    <t>Blocco di testo 2</t>
-  </si>
-  <si>
-    <t>Text block 3</t>
-  </si>
-  <si>
-    <t>Blocco di testo 3</t>
-  </si>
-  <si>
-    <t>Text block 4</t>
-  </si>
-  <si>
-    <t>Blocco di testo 4</t>
-  </si>
-  <si>
-    <t>Text block 5</t>
-  </si>
-  <si>
-    <t>Blocco di testo 5</t>
-  </si>
-  <si>
-    <t>Text block 6</t>
-  </si>
-  <si>
-    <t>Blocco di testo 6</t>
-  </si>
-  <si>
-    <t>Text block 7</t>
-  </si>
-  <si>
-    <t>Blocco di testo 7</t>
-  </si>
-  <si>
-    <t>Text block 8</t>
-  </si>
-  <si>
-    <t>Blocco di testo 8</t>
-  </si>
-  <si>
-    <t>Text block 9</t>
-  </si>
-  <si>
-    <t>Blocco di testo 9</t>
-  </si>
-  <si>
-    <t>Text block 10</t>
-  </si>
-  <si>
-    <t>Blocco di testo 10</t>
-  </si>
-  <si>
-    <t>Text block 11</t>
-  </si>
-  <si>
-    <t>Blocco di testo 11</t>
-  </si>
-  <si>
-    <t>Text block 12</t>
-  </si>
-  <si>
-    <t>Blocco di testo 12</t>
-  </si>
-  <si>
-    <t>Text block 13</t>
-  </si>
-  <si>
-    <t>Blocco di testo 13</t>
-  </si>
-  <si>
-    <t>Text block 14</t>
-  </si>
-  <si>
-    <t>Blocco di testo 14</t>
-  </si>
-  <si>
-    <t>Text block 15</t>
-  </si>
-  <si>
-    <t>Blocco di testo 15</t>
-  </si>
-  <si>
-    <t>features</t>
-  </si>
-  <si>
-    <t>caratteristiche</t>
-  </si>
-  <si>
-    <t>Features 1</t>
-  </si>
-  <si>
-    <t>Caratteristiche 1</t>
-  </si>
-  <si>
-    <t>Features 2</t>
-  </si>
-  <si>
-    <t>Caratteristiche 2</t>
-  </si>
-  <si>
-    <t>Features 3</t>
-  </si>
-  <si>
-    <t>Caratteristiche 3</t>
-  </si>
-  <si>
-    <t>Features 4</t>
-  </si>
-  <si>
-    <t>Caratteristiche 4</t>
-  </si>
-  <si>
-    <t>grids</t>
-  </si>
-  <si>
-    <t>griglie</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>menù</t>
-  </si>
-  <si>
-    <t>Menu - skin-1</t>
-  </si>
-  <si>
-    <t>Menu - pelle-1</t>
-  </si>
-  <si>
-    <t>Menu - skin-2</t>
-  </si>
-  <si>
-    <t>Menu - pelle-2</t>
-  </si>
-  <si>
-    <t>Menu - skin-3</t>
-  </si>
-  <si>
-    <t>Menu - pelle-3</t>
-  </si>
-  <si>
-    <t>Menu - skin-4</t>
-  </si>
-  <si>
-    <t>Menu - pelle-4</t>
-  </si>
-  <si>
-    <t>Menu - skin-5</t>
-  </si>
-  <si>
-    <t>Menu - pelle-5</t>
-  </si>
-  <si>
-    <t>footers</t>
-  </si>
-  <si>
-    <t>piè di pagina</t>
-  </si>
-  <si>
-    <t>Footers 1</t>
-  </si>
-  <si>
-    <t>Piè di pagina 1</t>
-  </si>
-  <si>
-    <t>Footers 2</t>
-  </si>
-  <si>
-    <t>Piè di pagina 2</t>
-  </si>
-  <si>
-    <t>Footers 3</t>
-  </si>
-  <si>
-    <t>Piè di pagina 3</t>
-  </si>
-  <si>
-    <t>Footers 4</t>
-  </si>
-  <si>
-    <t>Piè di pagina 4</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>jumbotron</t>
-  </si>
-  <si>
-    <t>Jumbotron 1</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>Pricing 1</t>
-  </si>
-  <si>
-    <t>Prezzi 1</t>
-  </si>
-  <si>
     <t>Default layouts</t>
   </si>
   <si>
     <t>Layout predefiniti</t>
   </si>
   <si>
-    <t>No Content Here</t>
-  </si>
-  <si>
-    <t>Nessun contenuto qui</t>
-  </si>
-  <si>
-    <t>Custom fields are saved</t>
-  </si>
-  <si>
-    <t>I campi personalizzati vengono salvati</t>
-  </si>
-  <si>
-    <t>Existing fields</t>
-  </si>
-  <si>
-    <t>Campi esistenti</t>
-  </si>
-  <si>
-    <t>Choose from your existing fields bellow</t>
-  </si>
-  <si>
-    <t>Scegli tra i campi esistenti qui sotto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Add new fields</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aggiungi nuovi campi</t>
-  </si>
-  <si>
-    <t>Add new custom field from list bellow</t>
-  </si>
-  <si>
-    <t>Aggiungi un nuovo campo personalizzato dall'elenco sottostante</t>
-  </si>
-  <si>
-    <t>Your fields</t>
-  </si>
-  <si>
-    <t>I tuoi campi</t>
-  </si>
-  <si>
-    <t>List of your added custom fields</t>
-  </si>
-  <si>
-    <t>Elenco dei campi personalizzati aggiunti</t>
+    <t>New import</t>
+  </si>
+  <si>
+    <t>Nuova importazione</t>
   </si>
   <si>
     <t xml:space="preserve">repeat vertically </t>
   </si>
   <si>
-    <t xml:space="preserve">ripetere in verticale </t>
+    <t xml:space="preserve">ripetere verticalmente </t>
   </si>
   <si>
     <t>Font Family</t>
@@ -18091,496 +18019,7 @@
     <t>Reloading styles</t>
   </si>
   <si>
-    <t>Ricaricare gli stili</t>
-  </si>
-  <si>
-    <t>Links to</t>
-  </si>
-  <si>
-    <t>Collegamenti a</t>
-  </si>
-  <si>
-    <t>Preview package</t>
-  </si>
-  <si>
-    <t>Pacchetto in anteprima</t>
-  </si>
-  <si>
-    <t>Demo</t>
-  </si>
-  <si>
-    <t>Use</t>
-  </si>
-  <si>
-    <t>Utilizzo</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Attuale</t>
-  </si>
-  <si>
-    <t>Reorder</t>
-  </si>
-  <si>
-    <t>Riordina</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Sistema</t>
-  </si>
-  <si>
-    <t>Browser Redirect</t>
-  </si>
-  <si>
-    <t>Reindirizzamento del browser</t>
-  </si>
-  <si>
-    <t>Integration</t>
-  </si>
-  <si>
-    <t>Integrazione</t>
-  </si>
-  <si>
-    <t>Standalone Updater</t>
-  </si>
-  <si>
-    <t>Aggiornatore autonomo</t>
-  </si>
-  <si>
-    <t>You need license key to install this package</t>
-  </si>
-  <si>
-    <t>È necessaria la chiave di licenza per installare questo pacchetto</t>
-  </si>
-  <si>
-    <t>This package is premium and you must have a license key to install it</t>
-  </si>
-  <si>
-    <t>Questo pacchetto è premium ed è necessario disporre di una chiave di licenza per installarlo</t>
-  </si>
-  <si>
-    <t>You need license key</t>
-  </si>
-  <si>
-    <t>Hai bisogno di una chiave di licenza</t>
-  </si>
-  <si>
-    <t>License activated</t>
-  </si>
-  <si>
-    <t>Licenza attivata</t>
-  </si>
-  <si>
-    <t>Reloading page</t>
-  </si>
-  <si>
-    <t>Pagina di ricarica</t>
-  </si>
-  <si>
-    <t>License not activated</t>
-  </si>
-  <si>
-    <t>Licenza non attivata</t>
-  </si>
-  <si>
-    <t>System updates</t>
-  </si>
-  <si>
-    <t>Aggiornamenti di sistema</t>
-  </si>
-  <si>
-    <t>Check for system updates</t>
-  </si>
-  <si>
-    <t>Verifica la presenza di aggiornamenti di sistema</t>
-  </si>
-  <si>
-    <t>Back to list</t>
-  </si>
-  <si>
-    <t>Torna alla lista</t>
-  </si>
-  <si>
-    <t>The category must have a name</t>
-  </si>
-  <si>
-    <t>La categoria deve avere un nome</t>
-  </si>
-  <si>
-    <t>Is category hidden?</t>
-  </si>
-  <si>
-    <t>La categoria è nascosta?</t>
-  </si>
-  <si>
-    <t>If you set this to YES this category will be hidden from the website</t>
-  </si>
-  <si>
-    <t>Se lo imposti su SÌ questa categoria sarà nascosta dal sito web</t>
-  </si>
-  <si>
-    <t>template-big</t>
-  </si>
-  <si>
-    <t>Mentioning</t>
-  </si>
-  <si>
-    <t>Menzione</t>
-  </si>
-  <si>
-    <t>Your cart is empty.</t>
-  </si>
-  <si>
-    <t>Il tuo carrello è vuoto.</t>
-  </si>
-  <si>
-    <t>Results found</t>
-  </si>
-  <si>
-    <t>Risultati trovati</t>
-  </si>
-  <si>
-    <t>If you choose the Percent from the select field, it will be calculated automatically from the Price and Offer price of the product.</t>
-  </si>
-  <si>
-    <t>Se scegli la Percentuale dal campo di selezione, verrà calcolata automaticamente dal Prezzo e dal Prezzo Offerta del prodotto.</t>
-  </si>
-  <si>
-    <t>أضف منتج</t>
-  </si>
-  <si>
-    <t>validation</t>
-  </si>
-  <si>
-    <t>custom.multilanguage.title.en_US.required</t>
-  </si>
-  <si>
-    <t>titolo.multilingua personalizzato.en_US.richiesto</t>
-  </si>
-  <si>
-    <t>values.multilanguage.title.en_US.</t>
-  </si>
-  <si>
-    <t>تحرير المنتج</t>
-  </si>
-  <si>
-    <t>iuiuui</t>
-  </si>
-  <si>
-    <t>Proceed to Checkout</t>
-  </si>
-  <si>
-    <t>Procedere al checkout</t>
-  </si>
-  <si>
-    <t>تحرير آخر</t>
-  </si>
-  <si>
-    <t>Displaying</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>result(s)</t>
-  </si>
-  <si>
-    <t>risultato/i</t>
-  </si>
-  <si>
-    <t>Page Title - Right Breadcrumb</t>
-  </si>
-  <si>
-    <t>Titolo pagina - Pangrattato destro</t>
-  </si>
-  <si>
-    <t>Page Title - Left Breadcrumb</t>
-  </si>
-  <si>
-    <t>Titolo pagina - Pangrattato sinistro</t>
-  </si>
-  <si>
-    <t>Terms of use</t>
-  </si>
-  <si>
-    <t>Condizioni d'uso</t>
-  </si>
-  <si>
-    <t>Delivery and returns</t>
-  </si>
-  <si>
-    <t>Consegna e resi</t>
-  </si>
-  <si>
-    <t>Shipping information</t>
-  </si>
-  <si>
-    <t>Informazioni sulla spedizione</t>
-  </si>
-  <si>
-    <t>About 1</t>
-  </si>
-  <si>
-    <t>Circa 1</t>
-  </si>
-  <si>
-    <t>About 2</t>
-  </si>
-  <si>
-    <t>Circa 2</t>
-  </si>
-  <si>
-    <t>About 3</t>
-  </si>
-  <si>
-    <t>Circa 3</t>
-  </si>
-  <si>
-    <t>Home 1</t>
-  </si>
-  <si>
-    <t>Casa 1</t>
-  </si>
-  <si>
-    <t>Home 2</t>
-  </si>
-  <si>
-    <t>casa 2</t>
-  </si>
-  <si>
-    <t>You must click the apply template button to change your template</t>
-  </si>
-  <si>
-    <t>È necessario fare clic sul pulsante Applica modello per modificare il modello</t>
-  </si>
-  <si>
-    <t>Search by criteria</t>
-  </si>
-  <si>
-    <t>Ricerca per criteri</t>
-  </si>
-  <si>
-    <t>Order ID</t>
-  </si>
-  <si>
-    <t>Date from</t>
-  </si>
-  <si>
-    <t>Data da</t>
-  </si>
-  <si>
-    <t>Set the orders from date</t>
-  </si>
-  <si>
-    <t>Imposta gli ordini dalla data</t>
-  </si>
-  <si>
-    <t>Date to</t>
-  </si>
-  <si>
-    <t>Data a</t>
-  </si>
-  <si>
-    <t>Set the orders to date</t>
-  </si>
-  <si>
-    <t>Imposta gli ordini fino ad oggi</t>
-  </si>
-  <si>
-    <t>Order amount from</t>
-  </si>
-  <si>
-    <t>Importo dell'ordine da</t>
-  </si>
-  <si>
-    <t>Show the order with minimum amount</t>
-  </si>
-  <si>
-    <t>Mostra l'ordine con l'importo minimo</t>
-  </si>
-  <si>
-    <t>Order amount to</t>
-  </si>
-  <si>
-    <t>Importo dell'ordine a</t>
-  </si>
-  <si>
-    <t>Show the order with maximum amount</t>
-  </si>
-  <si>
-    <t>Mostra l'ordine con l'importo massimo</t>
-  </si>
-  <si>
-    <t>Search by products...</t>
-  </si>
-  <si>
-    <t>Ricerca per prodotti...</t>
-  </si>
-  <si>
-    <t>Search by products</t>
-  </si>
-  <si>
-    <t>Ricerca per prodotti</t>
-  </si>
-  <si>
-    <t>Payment Status</t>
-  </si>
-  <si>
-    <t>Stato del pagamento</t>
-  </si>
-  <si>
-    <t>Free search by phone, name, email etc...</t>
-  </si>
-  <si>
-    <t>Ricerca gratuita per telefono, nome, email ecc...</t>
-  </si>
-  <si>
-    <t>Submit this criteria</t>
-  </si>
-  <si>
-    <t>Invia questo criterio</t>
-  </si>
-  <si>
-    <t>Reset filter</t>
-  </si>
-  <si>
-    <t>Reimposta filtro</t>
-  </si>
-  <si>
-    <t>Export all</t>
-  </si>
-  <si>
-    <t>Esporta tutto</t>
-  </si>
-  <si>
-    <t>Select sorting</t>
-  </si>
-  <si>
-    <t>Seleziona l'ordinamento</t>
-  </si>
-  <si>
-    <t>Order date</t>
-  </si>
-  <si>
-    <t>Data dell'ordine</t>
-  </si>
-  <si>
-    <t>[New &gt; Old]</t>
-  </si>
-  <si>
-    <t>[Nuovo &gt; Vecchio]</t>
-  </si>
-  <si>
-    <t>[Old &gt; New]</t>
-  </si>
-  <si>
-    <t>[Vecchio &gt; Nuovo]</t>
-  </si>
-  <si>
-    <t>[High &gt; Low]</t>
-  </si>
-  <si>
-    <t>[Alto &gt; Basso]</t>
-  </si>
-  <si>
-    <t>[Low &gt; High]</t>
-  </si>
-  <si>
-    <t>[Basso &gt; Alto]</t>
-  </si>
-  <si>
-    <t>Order completed</t>
-  </si>
-  <si>
-    <t>ordine completato</t>
-  </si>
-  <si>
-    <t>translations from the multilnaguage module have been found in your database.</t>
-  </si>
-  <si>
-    <t>traduzioni dal modulo multilingua sono state trovate nel tuo database.</t>
-  </si>
-  <si>
-    <t>Warning! Changing the default language can break translations on your site.</t>
-  </si>
-  <si>
-    <t>Avvertimento! La modifica della lingua predefinita può interrompere le traduzioni sul tuo sito.</t>
-  </si>
-  <si>
-    <t>Are you sure want to continue?</t>
-  </si>
-  <si>
-    <t>Sei sicuro di voler continuare?</t>
-  </si>
-  <si>
-    <t>Warning! The changing default language maybe will break your site.</t>
-  </si>
-  <si>
-    <t>Avvertimento! La modifica della lingua predefinita potrebbe interrompere il tuo sito.</t>
-  </si>
-  <si>
-    <t>Shipping details</t>
-  </si>
-  <si>
-    <t>Dettagli di spedizione</t>
-  </si>
-  <si>
-    <t>Shipping type</t>
-  </si>
-  <si>
-    <t>the order is not completed yet</t>
-  </si>
-  <si>
-    <t>l'ordine non è ancora completato</t>
-  </si>
-  <si>
-    <t>the order is completed</t>
-  </si>
-  <si>
-    <t>l'ordine è completato</t>
-  </si>
-  <si>
-    <t>Created at</t>
-  </si>
-  <si>
-    <t>Creato a</t>
-  </si>
-  <si>
-    <t>Updated at</t>
-  </si>
-  <si>
-    <t>Aggiornato a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick view </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occhiata veloce </t>
-  </si>
-  <si>
-    <t>Replace language values</t>
-  </si>
-  <si>
-    <t>Sostituisci i valori della lingua</t>
-  </si>
-  <si>
-    <t>Translations are imported</t>
-  </si>
-  <si>
-    <t>Le traduzioni vengono importate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traduzioni non trovate nel database. Vuoi importare traduzioni? </t>
+    <t>Stili di ricarica</t>
   </si>
 </sst>
 </file>
@@ -18916,7 +18355,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3217"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -69306,7 +68745,7 @@
         <v>5699</v>
       </c>
       <c r="D2964" t="s">
-        <v>5700</v>
+        <v>1383</v>
       </c>
       <c r="E2964" t="s">
         <v>8</v>
@@ -69320,10 +68759,10 @@
         <v>5</v>
       </c>
       <c r="C2965" t="s">
+        <v>5700</v>
+      </c>
+      <c r="D2965" t="s">
         <v>5701</v>
-      </c>
-      <c r="D2965" t="s">
-        <v>5702</v>
       </c>
       <c r="E2965" t="s">
         <v>8</v>
@@ -69337,10 +68776,10 @@
         <v>5</v>
       </c>
       <c r="C2966" t="s">
+        <v>5702</v>
+      </c>
+      <c r="D2966" t="s">
         <v>5703</v>
-      </c>
-      <c r="D2966" t="s">
-        <v>5704</v>
       </c>
       <c r="E2966" t="s">
         <v>8</v>
@@ -69354,10 +68793,10 @@
         <v>5</v>
       </c>
       <c r="C2967" t="s">
+        <v>5704</v>
+      </c>
+      <c r="D2967" t="s">
         <v>5705</v>
-      </c>
-      <c r="D2967" t="s">
-        <v>5706</v>
       </c>
       <c r="E2967" t="s">
         <v>8</v>
@@ -69371,10 +68810,10 @@
         <v>5</v>
       </c>
       <c r="C2968" t="s">
+        <v>5706</v>
+      </c>
+      <c r="D2968" t="s">
         <v>5707</v>
-      </c>
-      <c r="D2968" t="s">
-        <v>5708</v>
       </c>
       <c r="E2968" t="s">
         <v>8</v>
@@ -69388,10 +68827,10 @@
         <v>5</v>
       </c>
       <c r="C2969" t="s">
+        <v>5708</v>
+      </c>
+      <c r="D2969" t="s">
         <v>5709</v>
-      </c>
-      <c r="D2969" t="s">
-        <v>5710</v>
       </c>
       <c r="E2969" t="s">
         <v>8</v>
@@ -69405,10 +68844,10 @@
         <v>5</v>
       </c>
       <c r="C2970" t="s">
+        <v>5710</v>
+      </c>
+      <c r="D2970" t="s">
         <v>5711</v>
-      </c>
-      <c r="D2970" t="s">
-        <v>5712</v>
       </c>
       <c r="E2970" t="s">
         <v>8</v>
@@ -69422,10 +68861,10 @@
         <v>5</v>
       </c>
       <c r="C2971" t="s">
+        <v>5712</v>
+      </c>
+      <c r="D2971" t="s">
         <v>5713</v>
-      </c>
-      <c r="D2971" t="s">
-        <v>5714</v>
       </c>
       <c r="E2971" t="s">
         <v>8</v>
@@ -69439,10 +68878,10 @@
         <v>5</v>
       </c>
       <c r="C2972" t="s">
+        <v>5714</v>
+      </c>
+      <c r="D2972" t="s">
         <v>5715</v>
-      </c>
-      <c r="D2972" t="s">
-        <v>5716</v>
       </c>
       <c r="E2972" t="s">
         <v>8</v>
@@ -69456,10 +68895,10 @@
         <v>5</v>
       </c>
       <c r="C2973" t="s">
+        <v>5716</v>
+      </c>
+      <c r="D2973" t="s">
         <v>5717</v>
-      </c>
-      <c r="D2973" t="s">
-        <v>5718</v>
       </c>
       <c r="E2973" t="s">
         <v>8</v>
@@ -69473,10 +68912,10 @@
         <v>5</v>
       </c>
       <c r="C2974" t="s">
+        <v>5718</v>
+      </c>
+      <c r="D2974" t="s">
         <v>5719</v>
-      </c>
-      <c r="D2974" t="s">
-        <v>5720</v>
       </c>
       <c r="E2974" t="s">
         <v>8</v>
@@ -69490,10 +68929,10 @@
         <v>5</v>
       </c>
       <c r="C2975" t="s">
+        <v>5720</v>
+      </c>
+      <c r="D2975" t="s">
         <v>5721</v>
-      </c>
-      <c r="D2975" t="s">
-        <v>5722</v>
       </c>
       <c r="E2975" t="s">
         <v>8</v>
@@ -69507,10 +68946,10 @@
         <v>5</v>
       </c>
       <c r="C2976" t="s">
+        <v>5722</v>
+      </c>
+      <c r="D2976" t="s">
         <v>5723</v>
-      </c>
-      <c r="D2976" t="s">
-        <v>5724</v>
       </c>
       <c r="E2976" t="s">
         <v>8</v>
@@ -69524,10 +68963,10 @@
         <v>5</v>
       </c>
       <c r="C2977" t="s">
+        <v>5724</v>
+      </c>
+      <c r="D2977" t="s">
         <v>5725</v>
-      </c>
-      <c r="D2977" t="s">
-        <v>5726</v>
       </c>
       <c r="E2977" t="s">
         <v>8</v>
@@ -69541,10 +68980,10 @@
         <v>5</v>
       </c>
       <c r="C2978" t="s">
+        <v>5726</v>
+      </c>
+      <c r="D2978" t="s">
         <v>5727</v>
-      </c>
-      <c r="D2978" t="s">
-        <v>5728</v>
       </c>
       <c r="E2978" t="s">
         <v>8</v>
@@ -69558,10 +68997,10 @@
         <v>5</v>
       </c>
       <c r="C2979" t="s">
+        <v>5728</v>
+      </c>
+      <c r="D2979" t="s">
         <v>5729</v>
-      </c>
-      <c r="D2979" t="s">
-        <v>5730</v>
       </c>
       <c r="E2979" t="s">
         <v>8</v>
@@ -69575,10 +69014,10 @@
         <v>5</v>
       </c>
       <c r="C2980" t="s">
+        <v>5730</v>
+      </c>
+      <c r="D2980" t="s">
         <v>5731</v>
-      </c>
-      <c r="D2980" t="s">
-        <v>5732</v>
       </c>
       <c r="E2980" t="s">
         <v>8</v>
@@ -69592,10 +69031,10 @@
         <v>5</v>
       </c>
       <c r="C2981" t="s">
+        <v>5732</v>
+      </c>
+      <c r="D2981" t="s">
         <v>5733</v>
-      </c>
-      <c r="D2981" t="s">
-        <v>5734</v>
       </c>
       <c r="E2981" t="s">
         <v>8</v>
@@ -69609,10 +69048,10 @@
         <v>5</v>
       </c>
       <c r="C2982" t="s">
+        <v>5734</v>
+      </c>
+      <c r="D2982" t="s">
         <v>5735</v>
-      </c>
-      <c r="D2982" t="s">
-        <v>5736</v>
       </c>
       <c r="E2982" t="s">
         <v>8</v>
@@ -69626,10 +69065,10 @@
         <v>5</v>
       </c>
       <c r="C2983" t="s">
+        <v>5736</v>
+      </c>
+      <c r="D2983" t="s">
         <v>5737</v>
-      </c>
-      <c r="D2983" t="s">
-        <v>3816</v>
       </c>
       <c r="E2983" t="s">
         <v>8</v>
@@ -70122,7 +69561,7 @@
         <v>5794</v>
       </c>
       <c r="D3012" t="s">
-        <v>5794</v>
+        <v>5795</v>
       </c>
       <c r="E3012" t="s">
         <v>8</v>
@@ -70136,10 +69575,10 @@
         <v>5</v>
       </c>
       <c r="C3013" t="s">
-        <v>5795</v>
+        <v>5796</v>
       </c>
       <c r="D3013" t="s">
-        <v>5795</v>
+        <v>5796</v>
       </c>
       <c r="E3013" t="s">
         <v>8</v>
@@ -70153,10 +69592,10 @@
         <v>5</v>
       </c>
       <c r="C3014" t="s">
-        <v>5796</v>
+        <v>5797</v>
       </c>
       <c r="D3014" t="s">
-        <v>5797</v>
+        <v>5798</v>
       </c>
       <c r="E3014" t="s">
         <v>8</v>
@@ -70170,10 +69609,10 @@
         <v>5</v>
       </c>
       <c r="C3015" t="s">
-        <v>5798</v>
+        <v>5799</v>
       </c>
       <c r="D3015" t="s">
-        <v>5799</v>
+        <v>5800</v>
       </c>
       <c r="E3015" t="s">
         <v>8</v>
@@ -70187,10 +69626,10 @@
         <v>5</v>
       </c>
       <c r="C3016" t="s">
-        <v>5800</v>
+        <v>5801</v>
       </c>
       <c r="D3016" t="s">
-        <v>5801</v>
+        <v>5802</v>
       </c>
       <c r="E3016" t="s">
         <v>8</v>
@@ -70204,10 +69643,10 @@
         <v>5</v>
       </c>
       <c r="C3017" t="s">
-        <v>5802</v>
+        <v>5803</v>
       </c>
       <c r="D3017" t="s">
-        <v>3301</v>
+        <v>5804</v>
       </c>
       <c r="E3017" t="s">
         <v>8</v>
@@ -70221,10 +69660,10 @@
         <v>5</v>
       </c>
       <c r="C3018" t="s">
-        <v>5803</v>
+        <v>5805</v>
       </c>
       <c r="D3018" t="s">
-        <v>5804</v>
+        <v>5806</v>
       </c>
       <c r="E3018" t="s">
         <v>8</v>
@@ -70238,10 +69677,10 @@
         <v>5</v>
       </c>
       <c r="C3019" t="s">
-        <v>5805</v>
+        <v>5807</v>
       </c>
       <c r="D3019" t="s">
-        <v>5806</v>
+        <v>5808</v>
       </c>
       <c r="E3019" t="s">
         <v>8</v>
@@ -70255,7 +69694,7 @@
         <v>5</v>
       </c>
       <c r="C3020" t="s">
-        <v>5807</v>
+        <v>5809</v>
       </c>
       <c r="D3020" t="s">
         <v>1554</v>
@@ -70272,10 +69711,10 @@
         <v>5</v>
       </c>
       <c r="C3021" t="s">
-        <v>5808</v>
+        <v>5810</v>
       </c>
       <c r="D3021" t="s">
-        <v>5809</v>
+        <v>5811</v>
       </c>
       <c r="E3021" t="s">
         <v>8</v>
@@ -70289,10 +69728,10 @@
         <v>5</v>
       </c>
       <c r="C3022" t="s">
-        <v>5810</v>
+        <v>5812</v>
       </c>
       <c r="D3022" t="s">
-        <v>5811</v>
+        <v>5813</v>
       </c>
       <c r="E3022" t="s">
         <v>8</v>
@@ -70306,10 +69745,10 @@
         <v>5</v>
       </c>
       <c r="C3023" t="s">
-        <v>5812</v>
+        <v>5814</v>
       </c>
       <c r="D3023" t="s">
-        <v>5813</v>
+        <v>5815</v>
       </c>
       <c r="E3023" t="s">
         <v>8</v>
@@ -70323,10 +69762,10 @@
         <v>5</v>
       </c>
       <c r="C3024" t="s">
-        <v>5814</v>
+        <v>5816</v>
       </c>
       <c r="D3024" t="s">
-        <v>5815</v>
+        <v>5817</v>
       </c>
       <c r="E3024" t="s">
         <v>8</v>
@@ -70340,10 +69779,10 @@
         <v>5</v>
       </c>
       <c r="C3025" t="s">
-        <v>5816</v>
+        <v>5818</v>
       </c>
       <c r="D3025" t="s">
-        <v>5817</v>
+        <v>5819</v>
       </c>
       <c r="E3025" t="s">
         <v>8</v>
@@ -70357,10 +69796,10 @@
         <v>5</v>
       </c>
       <c r="C3026" t="s">
-        <v>5818</v>
+        <v>5820</v>
       </c>
       <c r="D3026" t="s">
-        <v>5819</v>
+        <v>5821</v>
       </c>
       <c r="E3026" t="s">
         <v>8</v>
@@ -70374,10 +69813,10 @@
         <v>5</v>
       </c>
       <c r="C3027" t="s">
-        <v>5820</v>
+        <v>5822</v>
       </c>
       <c r="D3027" t="s">
-        <v>5821</v>
+        <v>5823</v>
       </c>
       <c r="E3027" t="s">
         <v>8</v>
@@ -70391,10 +69830,10 @@
         <v>5</v>
       </c>
       <c r="C3028" t="s">
-        <v>5822</v>
+        <v>5824</v>
       </c>
       <c r="D3028" t="s">
-        <v>5823</v>
+        <v>5825</v>
       </c>
       <c r="E3028" t="s">
         <v>8</v>
@@ -70408,10 +69847,10 @@
         <v>5</v>
       </c>
       <c r="C3029" t="s">
-        <v>5824</v>
+        <v>5826</v>
       </c>
       <c r="D3029" t="s">
-        <v>5825</v>
+        <v>5827</v>
       </c>
       <c r="E3029" t="s">
         <v>8</v>
@@ -70425,10 +69864,10 @@
         <v>5</v>
       </c>
       <c r="C3030" t="s">
-        <v>5826</v>
+        <v>5828</v>
       </c>
       <c r="D3030" t="s">
-        <v>5827</v>
+        <v>5829</v>
       </c>
       <c r="E3030" t="s">
         <v>8</v>
@@ -70442,7 +69881,7 @@
         <v>5</v>
       </c>
       <c r="C3031" t="s">
-        <v>5828</v>
+        <v>5830</v>
       </c>
       <c r="D3031" t="s">
         <v>1114</v>
@@ -70459,10 +69898,10 @@
         <v>5</v>
       </c>
       <c r="C3032" t="s">
-        <v>5829</v>
+        <v>5831</v>
       </c>
       <c r="D3032" t="s">
-        <v>5830</v>
+        <v>5832</v>
       </c>
       <c r="E3032" t="s">
         <v>8</v>
@@ -70476,10 +69915,10 @@
         <v>5</v>
       </c>
       <c r="C3033" t="s">
-        <v>5831</v>
+        <v>5833</v>
       </c>
       <c r="D3033" t="s">
-        <v>5832</v>
+        <v>5834</v>
       </c>
       <c r="E3033" t="s">
         <v>8</v>
@@ -70493,10 +69932,10 @@
         <v>5</v>
       </c>
       <c r="C3034" t="s">
-        <v>5833</v>
+        <v>5835</v>
       </c>
       <c r="D3034" t="s">
-        <v>5834</v>
+        <v>5836</v>
       </c>
       <c r="E3034" t="s">
         <v>8</v>
@@ -70510,10 +69949,10 @@
         <v>5</v>
       </c>
       <c r="C3035" t="s">
-        <v>5835</v>
+        <v>5837</v>
       </c>
       <c r="D3035" t="s">
-        <v>4927</v>
+        <v>5838</v>
       </c>
       <c r="E3035" t="s">
         <v>8</v>
@@ -70527,10 +69966,10 @@
         <v>5</v>
       </c>
       <c r="C3036" t="s">
-        <v>5836</v>
+        <v>5839</v>
       </c>
       <c r="D3036" t="s">
-        <v>5837</v>
+        <v>5840</v>
       </c>
       <c r="E3036" t="s">
         <v>8</v>
@@ -70544,10 +69983,10 @@
         <v>5</v>
       </c>
       <c r="C3037" t="s">
-        <v>5838</v>
+        <v>5841</v>
       </c>
       <c r="D3037" t="s">
-        <v>5839</v>
+        <v>5842</v>
       </c>
       <c r="E3037" t="s">
         <v>8</v>
@@ -70561,10 +70000,10 @@
         <v>5</v>
       </c>
       <c r="C3038" t="s">
-        <v>5840</v>
+        <v>5843</v>
       </c>
       <c r="D3038" t="s">
-        <v>5841</v>
+        <v>5844</v>
       </c>
       <c r="E3038" t="s">
         <v>8</v>
@@ -70578,10 +70017,10 @@
         <v>5</v>
       </c>
       <c r="C3039" t="s">
-        <v>5842</v>
+        <v>5845</v>
       </c>
       <c r="D3039" t="s">
-        <v>5843</v>
+        <v>5846</v>
       </c>
       <c r="E3039" t="s">
         <v>8</v>
@@ -70595,10 +70034,10 @@
         <v>5</v>
       </c>
       <c r="C3040" t="s">
-        <v>5844</v>
+        <v>5847</v>
       </c>
       <c r="D3040" t="s">
-        <v>5845</v>
+        <v>5848</v>
       </c>
       <c r="E3040" t="s">
         <v>8</v>
@@ -70612,10 +70051,10 @@
         <v>5</v>
       </c>
       <c r="C3041" t="s">
-        <v>5846</v>
+        <v>5849</v>
       </c>
       <c r="D3041" t="s">
-        <v>5847</v>
+        <v>5850</v>
       </c>
       <c r="E3041" t="s">
         <v>8</v>
@@ -70629,10 +70068,10 @@
         <v>5</v>
       </c>
       <c r="C3042" t="s">
-        <v>5848</v>
+        <v>5851</v>
       </c>
       <c r="D3042" t="s">
-        <v>5849</v>
+        <v>5852</v>
       </c>
       <c r="E3042" t="s">
         <v>8</v>
@@ -70646,10 +70085,10 @@
         <v>5</v>
       </c>
       <c r="C3043" t="s">
-        <v>5850</v>
+        <v>5853</v>
       </c>
       <c r="D3043" t="s">
-        <v>5851</v>
+        <v>5854</v>
       </c>
       <c r="E3043" t="s">
         <v>8</v>
@@ -70663,10 +70102,10 @@
         <v>5</v>
       </c>
       <c r="C3044" t="s">
-        <v>5852</v>
+        <v>5855</v>
       </c>
       <c r="D3044" t="s">
-        <v>5853</v>
+        <v>5856</v>
       </c>
       <c r="E3044" t="s">
         <v>8</v>
@@ -70680,10 +70119,10 @@
         <v>5</v>
       </c>
       <c r="C3045" t="s">
-        <v>5854</v>
+        <v>5857</v>
       </c>
       <c r="D3045" t="s">
-        <v>5855</v>
+        <v>5858</v>
       </c>
       <c r="E3045" t="s">
         <v>8</v>
@@ -70697,10 +70136,10 @@
         <v>5</v>
       </c>
       <c r="C3046" t="s">
-        <v>5856</v>
+        <v>5859</v>
       </c>
       <c r="D3046" t="s">
-        <v>5857</v>
+        <v>5860</v>
       </c>
       <c r="E3046" t="s">
         <v>8</v>
@@ -70714,10 +70153,10 @@
         <v>5</v>
       </c>
       <c r="C3047" t="s">
-        <v>5858</v>
+        <v>5861</v>
       </c>
       <c r="D3047" t="s">
-        <v>5859</v>
+        <v>5862</v>
       </c>
       <c r="E3047" t="s">
         <v>8</v>
@@ -70731,10 +70170,10 @@
         <v>5</v>
       </c>
       <c r="C3048" t="s">
-        <v>5860</v>
+        <v>5863</v>
       </c>
       <c r="D3048" t="s">
-        <v>5861</v>
+        <v>5864</v>
       </c>
       <c r="E3048" t="s">
         <v>8</v>
@@ -70748,7 +70187,7 @@
         <v>5</v>
       </c>
       <c r="C3049" t="s">
-        <v>5862</v>
+        <v>5865</v>
       </c>
       <c r="D3049" t="s">
         <v>3102</v>
@@ -70765,10 +70204,10 @@
         <v>5</v>
       </c>
       <c r="C3050" t="s">
-        <v>5863</v>
+        <v>5866</v>
       </c>
       <c r="D3050" t="s">
-        <v>5864</v>
+        <v>5867</v>
       </c>
       <c r="E3050" t="s">
         <v>8</v>
@@ -70782,10 +70221,10 @@
         <v>5</v>
       </c>
       <c r="C3051" t="s">
-        <v>5865</v>
+        <v>5868</v>
       </c>
       <c r="D3051" t="s">
-        <v>5866</v>
+        <v>5869</v>
       </c>
       <c r="E3051" t="s">
         <v>8</v>
@@ -70799,10 +70238,10 @@
         <v>5</v>
       </c>
       <c r="C3052" t="s">
-        <v>5867</v>
+        <v>5870</v>
       </c>
       <c r="D3052" t="s">
-        <v>5868</v>
+        <v>5871</v>
       </c>
       <c r="E3052" t="s">
         <v>8</v>
@@ -70816,10 +70255,10 @@
         <v>5</v>
       </c>
       <c r="C3053" t="s">
-        <v>5869</v>
+        <v>5872</v>
       </c>
       <c r="D3053" t="s">
-        <v>5870</v>
+        <v>5873</v>
       </c>
       <c r="E3053" t="s">
         <v>8</v>
@@ -70833,10 +70272,10 @@
         <v>5</v>
       </c>
       <c r="C3054" t="s">
-        <v>5871</v>
+        <v>5874</v>
       </c>
       <c r="D3054" t="s">
-        <v>5872</v>
+        <v>5875</v>
       </c>
       <c r="E3054" t="s">
         <v>8</v>
@@ -70850,10 +70289,10 @@
         <v>5</v>
       </c>
       <c r="C3055" t="s">
-        <v>5873</v>
+        <v>5876</v>
       </c>
       <c r="D3055" t="s">
-        <v>5874</v>
+        <v>5877</v>
       </c>
       <c r="E3055" t="s">
         <v>8</v>
@@ -70867,10 +70306,10 @@
         <v>5</v>
       </c>
       <c r="C3056" t="s">
-        <v>5875</v>
+        <v>5878</v>
       </c>
       <c r="D3056" t="s">
-        <v>5876</v>
+        <v>5879</v>
       </c>
       <c r="E3056" t="s">
         <v>8</v>
@@ -70884,10 +70323,10 @@
         <v>5</v>
       </c>
       <c r="C3057" t="s">
-        <v>5877</v>
+        <v>5880</v>
       </c>
       <c r="D3057" t="s">
-        <v>5878</v>
+        <v>5881</v>
       </c>
       <c r="E3057" t="s">
         <v>8</v>
@@ -70901,10 +70340,10 @@
         <v>5</v>
       </c>
       <c r="C3058" t="s">
-        <v>5879</v>
+        <v>5882</v>
       </c>
       <c r="D3058" t="s">
-        <v>5880</v>
+        <v>4203</v>
       </c>
       <c r="E3058" t="s">
         <v>8</v>
@@ -70918,10 +70357,10 @@
         <v>5</v>
       </c>
       <c r="C3059" t="s">
-        <v>5881</v>
+        <v>5883</v>
       </c>
       <c r="D3059" t="s">
-        <v>5882</v>
+        <v>5884</v>
       </c>
       <c r="E3059" t="s">
         <v>8</v>
@@ -70935,10 +70374,10 @@
         <v>5</v>
       </c>
       <c r="C3060" t="s">
-        <v>5883</v>
+        <v>5885</v>
       </c>
       <c r="D3060" t="s">
-        <v>5884</v>
+        <v>5886</v>
       </c>
       <c r="E3060" t="s">
         <v>8</v>
@@ -70952,10 +70391,10 @@
         <v>5</v>
       </c>
       <c r="C3061" t="s">
-        <v>5885</v>
+        <v>5887</v>
       </c>
       <c r="D3061" t="s">
-        <v>5886</v>
+        <v>5888</v>
       </c>
       <c r="E3061" t="s">
         <v>8</v>
@@ -70966,13 +70405,13 @@
         <v>5</v>
       </c>
       <c r="B3062" t="s">
-        <v>5887</v>
+        <v>5889</v>
       </c>
       <c r="C3062" t="s">
-        <v>5888</v>
+        <v>5890</v>
       </c>
       <c r="D3062" t="s">
-        <v>5889</v>
+        <v>5891</v>
       </c>
       <c r="E3062" t="s">
         <v>8</v>
@@ -70986,10 +70425,10 @@
         <v>5</v>
       </c>
       <c r="C3063" t="s">
-        <v>5890</v>
+        <v>5892</v>
       </c>
       <c r="D3063" t="s">
-        <v>5891</v>
+        <v>5893</v>
       </c>
       <c r="E3063" t="s">
         <v>8</v>
@@ -71003,10 +70442,10 @@
         <v>5</v>
       </c>
       <c r="C3064" t="s">
-        <v>5892</v>
+        <v>5894</v>
       </c>
       <c r="D3064" t="s">
-        <v>5893</v>
+        <v>4233</v>
       </c>
       <c r="E3064" t="s">
         <v>8</v>
@@ -71020,10 +70459,10 @@
         <v>5</v>
       </c>
       <c r="C3065" t="s">
-        <v>5894</v>
+        <v>5895</v>
       </c>
       <c r="D3065" t="s">
-        <v>5895</v>
+        <v>5896</v>
       </c>
       <c r="E3065" t="s">
         <v>8</v>
@@ -71037,10 +70476,10 @@
         <v>5</v>
       </c>
       <c r="C3066" t="s">
-        <v>5896</v>
+        <v>5897</v>
       </c>
       <c r="D3066" t="s">
-        <v>5896</v>
+        <v>5898</v>
       </c>
       <c r="E3066" t="s">
         <v>8</v>
@@ -71054,10 +70493,10 @@
         <v>5</v>
       </c>
       <c r="C3067" t="s">
-        <v>5897</v>
+        <v>5899</v>
       </c>
       <c r="D3067" t="s">
-        <v>5898</v>
+        <v>972</v>
       </c>
       <c r="E3067" t="s">
         <v>8</v>
@@ -71071,10 +70510,10 @@
         <v>5</v>
       </c>
       <c r="C3068" t="s">
-        <v>5899</v>
+        <v>5900</v>
       </c>
       <c r="D3068" t="s">
-        <v>5900</v>
+        <v>5901</v>
       </c>
       <c r="E3068" t="s">
         <v>8</v>
@@ -71088,10 +70527,10 @@
         <v>5</v>
       </c>
       <c r="C3069" t="s">
-        <v>5901</v>
+        <v>5902</v>
       </c>
       <c r="D3069" t="s">
-        <v>5902</v>
+        <v>5903</v>
       </c>
       <c r="E3069" t="s">
         <v>8</v>
@@ -71105,10 +70544,10 @@
         <v>5</v>
       </c>
       <c r="C3070" t="s">
-        <v>5903</v>
+        <v>5904</v>
       </c>
       <c r="D3070" t="s">
-        <v>5904</v>
+        <v>5905</v>
       </c>
       <c r="E3070" t="s">
         <v>8</v>
@@ -71122,10 +70561,10 @@
         <v>5</v>
       </c>
       <c r="C3071" t="s">
-        <v>5905</v>
+        <v>5906</v>
       </c>
       <c r="D3071" t="s">
-        <v>5906</v>
+        <v>5907</v>
       </c>
       <c r="E3071" t="s">
         <v>8</v>
@@ -71139,10 +70578,10 @@
         <v>5</v>
       </c>
       <c r="C3072" t="s">
-        <v>5907</v>
+        <v>5908</v>
       </c>
       <c r="D3072" t="s">
-        <v>5908</v>
+        <v>5909</v>
       </c>
       <c r="E3072" t="s">
         <v>8</v>
@@ -71156,7 +70595,7 @@
         <v>5</v>
       </c>
       <c r="C3073" t="s">
-        <v>5909</v>
+        <v>5910</v>
       </c>
       <c r="D3073" t="s">
         <v>5910</v>
@@ -71193,7 +70632,7 @@
         <v>5913</v>
       </c>
       <c r="D3075" t="s">
-        <v>5914</v>
+        <v>1637</v>
       </c>
       <c r="E3075" t="s">
         <v>8</v>
@@ -71207,10 +70646,10 @@
         <v>5</v>
       </c>
       <c r="C3076" t="s">
+        <v>5914</v>
+      </c>
+      <c r="D3076" t="s">
         <v>5915</v>
-      </c>
-      <c r="D3076" t="s">
-        <v>5916</v>
       </c>
       <c r="E3076" t="s">
         <v>8</v>
@@ -71224,10 +70663,10 @@
         <v>5</v>
       </c>
       <c r="C3077" t="s">
+        <v>5916</v>
+      </c>
+      <c r="D3077" t="s">
         <v>5917</v>
-      </c>
-      <c r="D3077" t="s">
-        <v>5918</v>
       </c>
       <c r="E3077" t="s">
         <v>8</v>
@@ -71241,10 +70680,10 @@
         <v>5</v>
       </c>
       <c r="C3078" t="s">
+        <v>5918</v>
+      </c>
+      <c r="D3078" t="s">
         <v>5919</v>
-      </c>
-      <c r="D3078" t="s">
-        <v>5920</v>
       </c>
       <c r="E3078" t="s">
         <v>8</v>
@@ -71258,10 +70697,10 @@
         <v>5</v>
       </c>
       <c r="C3079" t="s">
+        <v>5920</v>
+      </c>
+      <c r="D3079" t="s">
         <v>5921</v>
-      </c>
-      <c r="D3079" t="s">
-        <v>5922</v>
       </c>
       <c r="E3079" t="s">
         <v>8</v>
@@ -71275,10 +70714,10 @@
         <v>5</v>
       </c>
       <c r="C3080" t="s">
+        <v>5922</v>
+      </c>
+      <c r="D3080" t="s">
         <v>5923</v>
-      </c>
-      <c r="D3080" t="s">
-        <v>5924</v>
       </c>
       <c r="E3080" t="s">
         <v>8</v>
@@ -71292,10 +70731,10 @@
         <v>5</v>
       </c>
       <c r="C3081" t="s">
+        <v>5924</v>
+      </c>
+      <c r="D3081" t="s">
         <v>5925</v>
-      </c>
-      <c r="D3081" t="s">
-        <v>5926</v>
       </c>
       <c r="E3081" t="s">
         <v>8</v>
@@ -71309,10 +70748,10 @@
         <v>5</v>
       </c>
       <c r="C3082" t="s">
+        <v>5926</v>
+      </c>
+      <c r="D3082" t="s">
         <v>5927</v>
-      </c>
-      <c r="D3082" t="s">
-        <v>5928</v>
       </c>
       <c r="E3082" t="s">
         <v>8</v>
@@ -71326,10 +70765,10 @@
         <v>5</v>
       </c>
       <c r="C3083" t="s">
+        <v>5928</v>
+      </c>
+      <c r="D3083" t="s">
         <v>5929</v>
-      </c>
-      <c r="D3083" t="s">
-        <v>5930</v>
       </c>
       <c r="E3083" t="s">
         <v>8</v>
@@ -71343,10 +70782,10 @@
         <v>5</v>
       </c>
       <c r="C3084" t="s">
+        <v>5930</v>
+      </c>
+      <c r="D3084" t="s">
         <v>5931</v>
-      </c>
-      <c r="D3084" t="s">
-        <v>5932</v>
       </c>
       <c r="E3084" t="s">
         <v>8</v>
@@ -71360,10 +70799,10 @@
         <v>5</v>
       </c>
       <c r="C3085" t="s">
+        <v>5932</v>
+      </c>
+      <c r="D3085" t="s">
         <v>5933</v>
-      </c>
-      <c r="D3085" t="s">
-        <v>5934</v>
       </c>
       <c r="E3085" t="s">
         <v>8</v>
@@ -71377,10 +70816,10 @@
         <v>5</v>
       </c>
       <c r="C3086" t="s">
-        <v>5935</v>
+        <v>5934</v>
       </c>
       <c r="D3086" t="s">
-        <v>5936</v>
+        <v>44</v>
       </c>
       <c r="E3086" t="s">
         <v>8</v>
@@ -71394,10 +70833,10 @@
         <v>5</v>
       </c>
       <c r="C3087" t="s">
-        <v>5937</v>
+        <v>5935</v>
       </c>
       <c r="D3087" t="s">
-        <v>5938</v>
+        <v>5936</v>
       </c>
       <c r="E3087" t="s">
         <v>8</v>
@@ -71411,10 +70850,10 @@
         <v>5</v>
       </c>
       <c r="C3088" t="s">
-        <v>5939</v>
+        <v>5937</v>
       </c>
       <c r="D3088" t="s">
-        <v>5940</v>
+        <v>5937</v>
       </c>
       <c r="E3088" t="s">
         <v>8</v>
@@ -71428,10 +70867,10 @@
         <v>5</v>
       </c>
       <c r="C3089" t="s">
-        <v>5941</v>
+        <v>5938</v>
       </c>
       <c r="D3089" t="s">
-        <v>5942</v>
+        <v>5939</v>
       </c>
       <c r="E3089" t="s">
         <v>8</v>
@@ -71445,10 +70884,10 @@
         <v>5</v>
       </c>
       <c r="C3090" t="s">
-        <v>5943</v>
+        <v>5940</v>
       </c>
       <c r="D3090" t="s">
-        <v>5944</v>
+        <v>5941</v>
       </c>
       <c r="E3090" t="s">
         <v>8</v>
@@ -71462,10 +70901,10 @@
         <v>5</v>
       </c>
       <c r="C3091" t="s">
-        <v>5945</v>
+        <v>5942</v>
       </c>
       <c r="D3091" t="s">
-        <v>5946</v>
+        <v>5943</v>
       </c>
       <c r="E3091" t="s">
         <v>8</v>
@@ -71479,10 +70918,10 @@
         <v>5</v>
       </c>
       <c r="C3092" t="s">
-        <v>5947</v>
+        <v>5944</v>
       </c>
       <c r="D3092" t="s">
-        <v>5948</v>
+        <v>5945</v>
       </c>
       <c r="E3092" t="s">
         <v>8</v>
@@ -71496,10 +70935,10 @@
         <v>5</v>
       </c>
       <c r="C3093" t="s">
-        <v>5949</v>
+        <v>5946</v>
       </c>
       <c r="D3093" t="s">
-        <v>5950</v>
+        <v>5947</v>
       </c>
       <c r="E3093" t="s">
         <v>8</v>
@@ -71513,10 +70952,10 @@
         <v>5</v>
       </c>
       <c r="C3094" t="s">
-        <v>5951</v>
+        <v>5948</v>
       </c>
       <c r="D3094" t="s">
-        <v>5952</v>
+        <v>5948</v>
       </c>
       <c r="E3094" t="s">
         <v>8</v>
@@ -71530,10 +70969,10 @@
         <v>5</v>
       </c>
       <c r="C3095" t="s">
-        <v>5953</v>
+        <v>5949</v>
       </c>
       <c r="D3095" t="s">
-        <v>5954</v>
+        <v>5950</v>
       </c>
       <c r="E3095" t="s">
         <v>8</v>
@@ -71547,10 +70986,10 @@
         <v>5</v>
       </c>
       <c r="C3096" t="s">
-        <v>5955</v>
+        <v>5951</v>
       </c>
       <c r="D3096" t="s">
-        <v>5956</v>
+        <v>5952</v>
       </c>
       <c r="E3096" t="s">
         <v>8</v>
@@ -71564,10 +71003,10 @@
         <v>5</v>
       </c>
       <c r="C3097" t="s">
-        <v>5957</v>
+        <v>5953</v>
       </c>
       <c r="D3097" t="s">
-        <v>5958</v>
+        <v>5954</v>
       </c>
       <c r="E3097" t="s">
         <v>8</v>
@@ -71581,10 +71020,10 @@
         <v>5</v>
       </c>
       <c r="C3098" t="s">
-        <v>5959</v>
+        <v>5955</v>
       </c>
       <c r="D3098" t="s">
-        <v>5960</v>
+        <v>5956</v>
       </c>
       <c r="E3098" t="s">
         <v>8</v>
@@ -71598,10 +71037,10 @@
         <v>5</v>
       </c>
       <c r="C3099" t="s">
-        <v>5961</v>
+        <v>5957</v>
       </c>
       <c r="D3099" t="s">
-        <v>5962</v>
+        <v>5958</v>
       </c>
       <c r="E3099" t="s">
         <v>8</v>
@@ -71615,10 +71054,10 @@
         <v>5</v>
       </c>
       <c r="C3100" t="s">
-        <v>5963</v>
+        <v>5959</v>
       </c>
       <c r="D3100" t="s">
-        <v>5964</v>
+        <v>5960</v>
       </c>
       <c r="E3100" t="s">
         <v>8</v>
@@ -71632,10 +71071,10 @@
         <v>5</v>
       </c>
       <c r="C3101" t="s">
-        <v>5965</v>
+        <v>5961</v>
       </c>
       <c r="D3101" t="s">
-        <v>5966</v>
+        <v>5962</v>
       </c>
       <c r="E3101" t="s">
         <v>8</v>
@@ -71649,10 +71088,10 @@
         <v>5</v>
       </c>
       <c r="C3102" t="s">
-        <v>5967</v>
+        <v>5963</v>
       </c>
       <c r="D3102" t="s">
-        <v>5968</v>
+        <v>5964</v>
       </c>
       <c r="E3102" t="s">
         <v>8</v>
@@ -71666,10 +71105,10 @@
         <v>5</v>
       </c>
       <c r="C3103" t="s">
-        <v>5969</v>
+        <v>5965</v>
       </c>
       <c r="D3103" t="s">
-        <v>5970</v>
+        <v>5966</v>
       </c>
       <c r="E3103" t="s">
         <v>8</v>
@@ -71683,10 +71122,10 @@
         <v>5</v>
       </c>
       <c r="C3104" t="s">
-        <v>5971</v>
+        <v>5967</v>
       </c>
       <c r="D3104" t="s">
-        <v>5972</v>
+        <v>5968</v>
       </c>
       <c r="E3104" t="s">
         <v>8</v>
@@ -71700,10 +71139,10 @@
         <v>5</v>
       </c>
       <c r="C3105" t="s">
-        <v>5973</v>
+        <v>5969</v>
       </c>
       <c r="D3105" t="s">
-        <v>5974</v>
+        <v>5970</v>
       </c>
       <c r="E3105" t="s">
         <v>8</v>
@@ -71717,10 +71156,10 @@
         <v>5</v>
       </c>
       <c r="C3106" t="s">
-        <v>5975</v>
+        <v>5971</v>
       </c>
       <c r="D3106" t="s">
-        <v>5976</v>
+        <v>5972</v>
       </c>
       <c r="E3106" t="s">
         <v>8</v>
@@ -71734,10 +71173,10 @@
         <v>5</v>
       </c>
       <c r="C3107" t="s">
-        <v>5977</v>
+        <v>5973</v>
       </c>
       <c r="D3107" t="s">
-        <v>5978</v>
+        <v>5974</v>
       </c>
       <c r="E3107" t="s">
         <v>8</v>
@@ -71751,10 +71190,10 @@
         <v>5</v>
       </c>
       <c r="C3108" t="s">
-        <v>5979</v>
+        <v>5975</v>
       </c>
       <c r="D3108" t="s">
-        <v>5980</v>
+        <v>5976</v>
       </c>
       <c r="E3108" t="s">
         <v>8</v>
@@ -71767,11 +71206,11 @@
       <c r="B3109" t="s">
         <v>5</v>
       </c>
-      <c r="C3109" t="s">
-        <v>5981</v>
-      </c>
-      <c r="D3109" t="s">
-        <v>1278</v>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109">
+        <v>404</v>
       </c>
       <c r="E3109" t="s">
         <v>8</v>
@@ -71784,11 +71223,11 @@
       <c r="B3110" t="s">
         <v>5</v>
       </c>
-      <c r="C3110">
-        <v>404</v>
-      </c>
-      <c r="D3110">
-        <v>404</v>
+      <c r="C3110" t="s">
+        <v>5977</v>
+      </c>
+      <c r="D3110" t="s">
+        <v>5978</v>
       </c>
       <c r="E3110" t="s">
         <v>8</v>
@@ -71802,10 +71241,10 @@
         <v>5</v>
       </c>
       <c r="C3111" t="s">
-        <v>5982</v>
+        <v>5979</v>
       </c>
       <c r="D3111" t="s">
-        <v>5982</v>
+        <v>5980</v>
       </c>
       <c r="E3111" t="s">
         <v>8</v>
@@ -71819,10 +71258,10 @@
         <v>5</v>
       </c>
       <c r="C3112" t="s">
-        <v>5983</v>
+        <v>5981</v>
       </c>
       <c r="D3112" t="s">
-        <v>5983</v>
+        <v>5982</v>
       </c>
       <c r="E3112" t="s">
         <v>8</v>
@@ -71836,10 +71275,10 @@
         <v>5</v>
       </c>
       <c r="C3113" t="s">
+        <v>5983</v>
+      </c>
+      <c r="D3113" t="s">
         <v>5984</v>
-      </c>
-      <c r="D3113" t="s">
-        <v>4569</v>
       </c>
       <c r="E3113" t="s">
         <v>8</v>
@@ -71944,1672 +71383,6 @@
         <v>5996</v>
       </c>
       <c r="E3119" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3120" spans="1:5">
-      <c r="A3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3120" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3120" t="s">
-        <v>5997</v>
-      </c>
-      <c r="D3120" t="s">
-        <v>5998</v>
-      </c>
-      <c r="E3120" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3121" spans="1:5">
-      <c r="A3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3121" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3121" t="s">
-        <v>5999</v>
-      </c>
-      <c r="D3121" t="s">
-        <v>6000</v>
-      </c>
-      <c r="E3121" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3122" spans="1:5">
-      <c r="A3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3122" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3122" t="s">
-        <v>6001</v>
-      </c>
-      <c r="D3122" t="s">
-        <v>6002</v>
-      </c>
-      <c r="E3122" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3123" spans="1:5">
-      <c r="A3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3123" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3123" t="s">
-        <v>6003</v>
-      </c>
-      <c r="D3123" t="s">
-        <v>6004</v>
-      </c>
-      <c r="E3123" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3124" spans="1:5">
-      <c r="A3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3124" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3124" t="s">
-        <v>6005</v>
-      </c>
-      <c r="D3124" t="s">
-        <v>6006</v>
-      </c>
-      <c r="E3124" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3125" spans="1:5">
-      <c r="A3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3125" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3125" t="s">
-        <v>6007</v>
-      </c>
-      <c r="D3125" t="s">
-        <v>6008</v>
-      </c>
-      <c r="E3125" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3126" spans="1:5">
-      <c r="A3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3126" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3126" t="s">
-        <v>6009</v>
-      </c>
-      <c r="D3126" t="s">
-        <v>6010</v>
-      </c>
-      <c r="E3126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3127" spans="1:5">
-      <c r="A3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3127" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3127" t="s">
-        <v>6011</v>
-      </c>
-      <c r="D3127" t="s">
-        <v>6012</v>
-      </c>
-      <c r="E3127" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3128" spans="1:5">
-      <c r="A3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3128" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3128" t="s">
-        <v>6013</v>
-      </c>
-      <c r="D3128" t="s">
-        <v>6014</v>
-      </c>
-      <c r="E3128" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3129" spans="1:5">
-      <c r="A3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3129" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3129" t="s">
-        <v>6015</v>
-      </c>
-      <c r="D3129" t="s">
-        <v>6016</v>
-      </c>
-      <c r="E3129" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3130" spans="1:5">
-      <c r="A3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3130" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3130" t="s">
-        <v>6017</v>
-      </c>
-      <c r="D3130" t="s">
-        <v>6018</v>
-      </c>
-      <c r="E3130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3131" spans="1:5">
-      <c r="A3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3131" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3131" t="s">
-        <v>6019</v>
-      </c>
-      <c r="D3131" t="s">
-        <v>6020</v>
-      </c>
-      <c r="E3131" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3132" spans="1:5">
-      <c r="A3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3132" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3132" t="s">
-        <v>6021</v>
-      </c>
-      <c r="D3132" t="s">
-        <v>6022</v>
-      </c>
-      <c r="E3132" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3133" spans="1:5">
-      <c r="A3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3133" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3133" t="s">
-        <v>6023</v>
-      </c>
-      <c r="D3133" t="s">
-        <v>6024</v>
-      </c>
-      <c r="E3133" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3134" spans="1:5">
-      <c r="A3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3134" t="s">
-        <v>6025</v>
-      </c>
-      <c r="D3134" t="s">
-        <v>6025</v>
-      </c>
-      <c r="E3134" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3135" spans="1:5">
-      <c r="A3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3135" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3135" t="s">
-        <v>6026</v>
-      </c>
-      <c r="D3135" t="s">
-        <v>6027</v>
-      </c>
-      <c r="E3135" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3136" spans="1:5">
-      <c r="A3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3136" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3136" t="s">
-        <v>6028</v>
-      </c>
-      <c r="D3136" t="s">
-        <v>6029</v>
-      </c>
-      <c r="E3136" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3137" spans="1:5">
-      <c r="A3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3137" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3137" t="s">
-        <v>6030</v>
-      </c>
-      <c r="D3137" t="s">
-        <v>6031</v>
-      </c>
-      <c r="E3137" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3138" spans="1:5">
-      <c r="A3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3138" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3138" t="s">
-        <v>6032</v>
-      </c>
-      <c r="D3138" t="s">
-        <v>6033</v>
-      </c>
-      <c r="E3138" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3139" spans="1:5">
-      <c r="A3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3139" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3139" t="s">
-        <v>6034</v>
-      </c>
-      <c r="D3139" t="s">
-        <v>6035</v>
-      </c>
-      <c r="E3139" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3140" spans="1:5">
-      <c r="A3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3140" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3140" t="s">
-        <v>6036</v>
-      </c>
-      <c r="D3140" t="s">
-        <v>6037</v>
-      </c>
-      <c r="E3140" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3141" spans="1:5">
-      <c r="A3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3141" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3141" t="s">
-        <v>6038</v>
-      </c>
-      <c r="D3141" t="s">
-        <v>6039</v>
-      </c>
-      <c r="E3141" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3142" spans="1:5">
-      <c r="A3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3142" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3142" t="s">
-        <v>6040</v>
-      </c>
-      <c r="D3142" t="s">
-        <v>6041</v>
-      </c>
-      <c r="E3142" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3143" spans="1:5">
-      <c r="A3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3143" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3143" t="s">
-        <v>6042</v>
-      </c>
-      <c r="D3143" t="s">
-        <v>6043</v>
-      </c>
-      <c r="E3143" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3144" spans="1:5">
-      <c r="A3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3144" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3144" t="s">
-        <v>6044</v>
-      </c>
-      <c r="D3144" t="s">
-        <v>6045</v>
-      </c>
-      <c r="E3144" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3145" spans="1:5">
-      <c r="A3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3145" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3145" t="s">
-        <v>6046</v>
-      </c>
-      <c r="D3145" t="s">
-        <v>6047</v>
-      </c>
-      <c r="E3145" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3146" spans="1:5">
-      <c r="A3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3146" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3146" t="s">
-        <v>6048</v>
-      </c>
-      <c r="D3146" t="s">
-        <v>6049</v>
-      </c>
-      <c r="E3146" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3147" spans="1:5">
-      <c r="A3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3147" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3147" t="s">
-        <v>6050</v>
-      </c>
-      <c r="D3147" t="s">
-        <v>6051</v>
-      </c>
-      <c r="E3147" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3148" spans="1:5">
-      <c r="A3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3148" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3148" t="s">
-        <v>2706</v>
-      </c>
-      <c r="D3148" t="s">
-        <v>2705</v>
-      </c>
-      <c r="E3148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3149" spans="1:5">
-      <c r="A3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3149" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3149" t="s">
-        <v>6052</v>
-      </c>
-      <c r="D3149" t="s">
-        <v>6053</v>
-      </c>
-      <c r="E3149" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3150" spans="1:5">
-      <c r="A3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3150" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3150" t="s">
-        <v>6054</v>
-      </c>
-      <c r="D3150" t="s">
-        <v>6055</v>
-      </c>
-      <c r="E3150" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3151" spans="1:5">
-      <c r="A3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3151" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3151" t="s">
-        <v>6056</v>
-      </c>
-      <c r="D3151" t="s">
-        <v>6057</v>
-      </c>
-      <c r="E3151" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3152" spans="1:5">
-      <c r="A3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3152" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3152" t="s">
-        <v>6058</v>
-      </c>
-      <c r="D3152" t="s">
-        <v>6059</v>
-      </c>
-      <c r="E3152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3153" spans="1:5">
-      <c r="A3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3153" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3153" t="s">
-        <v>6060</v>
-      </c>
-      <c r="D3153" t="s">
-        <v>6061</v>
-      </c>
-      <c r="E3153" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3154" spans="1:5">
-      <c r="A3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3154" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3154" t="s">
-        <v>6062</v>
-      </c>
-      <c r="D3154" t="s">
-        <v>6063</v>
-      </c>
-      <c r="E3154" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3155" spans="1:5">
-      <c r="A3155" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3155" t="s">
-        <v>6064</v>
-      </c>
-      <c r="C3155" t="s">
-        <v>6065</v>
-      </c>
-      <c r="D3155" t="s">
-        <v>6066</v>
-      </c>
-      <c r="E3155" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3156" spans="1:5">
-      <c r="A3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3156" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3156" t="s">
-        <v>6067</v>
-      </c>
-      <c r="D3156" t="s">
-        <v>6068</v>
-      </c>
-      <c r="E3156" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3157" spans="1:5">
-      <c r="A3157" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3157" t="s">
-        <v>5887</v>
-      </c>
-      <c r="C3157" t="s">
-        <v>6069</v>
-      </c>
-      <c r="D3157" t="s">
-        <v>6070</v>
-      </c>
-      <c r="E3157" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3158" spans="1:5">
-      <c r="A3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3158" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3158" t="s">
-        <v>6071</v>
-      </c>
-      <c r="D3158" t="s">
-        <v>6072</v>
-      </c>
-      <c r="E3158" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3159" spans="1:5">
-      <c r="A3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3159" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3159" t="s">
-        <v>6073</v>
-      </c>
-      <c r="D3159" t="s">
-        <v>6073</v>
-      </c>
-      <c r="E3159" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3160" spans="1:5">
-      <c r="A3160" t="s">
-        <v>6074</v>
-      </c>
-      <c r="B3160" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3160" t="s">
-        <v>6075</v>
-      </c>
-      <c r="D3160" t="s">
-        <v>6076</v>
-      </c>
-      <c r="E3160" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3161" spans="1:5">
-      <c r="A3161" t="s">
-        <v>6074</v>
-      </c>
-      <c r="B3161" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3161" t="s">
-        <v>6077</v>
-      </c>
-      <c r="D3161" t="s">
-        <v>6077</v>
-      </c>
-      <c r="E3161" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3162" spans="1:5">
-      <c r="A3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3162" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3162" t="s">
-        <v>6078</v>
-      </c>
-      <c r="D3162" t="s">
-        <v>6078</v>
-      </c>
-      <c r="E3162" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3163" spans="1:5">
-      <c r="A3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3163" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3163" t="s">
-        <v>6079</v>
-      </c>
-      <c r="D3163" t="s">
-        <v>6079</v>
-      </c>
-      <c r="E3163" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3164" spans="1:5">
-      <c r="A3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3164" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3164" t="s">
-        <v>6080</v>
-      </c>
-      <c r="D3164" t="s">
-        <v>6081</v>
-      </c>
-      <c r="E3164" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3165" spans="1:5">
-      <c r="A3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3165" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3165" t="s">
-        <v>6082</v>
-      </c>
-      <c r="D3165" t="s">
-        <v>6082</v>
-      </c>
-      <c r="E3165" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3166" spans="1:5">
-      <c r="A3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3166" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3166" t="s">
-        <v>6083</v>
-      </c>
-      <c r="D3166" t="s">
-        <v>2230</v>
-      </c>
-      <c r="E3166" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3167" spans="1:5">
-      <c r="A3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3167" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3167" t="s">
-        <v>6084</v>
-      </c>
-      <c r="D3167" t="s">
-        <v>6085</v>
-      </c>
-      <c r="E3167" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3168" spans="1:5">
-      <c r="A3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3168" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3168" t="s">
-        <v>6086</v>
-      </c>
-      <c r="D3168" t="s">
-        <v>6087</v>
-      </c>
-      <c r="E3168" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3169" spans="1:5">
-      <c r="A3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3169" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3169" t="s">
-        <v>6088</v>
-      </c>
-      <c r="D3169" t="s">
-        <v>6089</v>
-      </c>
-      <c r="E3169" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3170" spans="1:5">
-      <c r="A3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3170" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3170" t="s">
-        <v>6090</v>
-      </c>
-      <c r="D3170" t="s">
-        <v>6091</v>
-      </c>
-      <c r="E3170" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3171" spans="1:5">
-      <c r="A3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3171" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3171" t="s">
-        <v>6092</v>
-      </c>
-      <c r="D3171" t="s">
-        <v>6093</v>
-      </c>
-      <c r="E3171" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3172" spans="1:5">
-      <c r="A3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3172" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3172" t="s">
-        <v>6094</v>
-      </c>
-      <c r="D3172" t="s">
-        <v>6095</v>
-      </c>
-      <c r="E3172" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3173" spans="1:5">
-      <c r="A3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3173" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3173" t="s">
-        <v>6096</v>
-      </c>
-      <c r="D3173" t="s">
-        <v>6097</v>
-      </c>
-      <c r="E3173" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3174" spans="1:5">
-      <c r="A3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3174" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3174" t="s">
-        <v>6098</v>
-      </c>
-      <c r="D3174" t="s">
-        <v>6099</v>
-      </c>
-      <c r="E3174" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3175" spans="1:5">
-      <c r="A3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3175" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3175" t="s">
-        <v>6100</v>
-      </c>
-      <c r="D3175" t="s">
-        <v>6101</v>
-      </c>
-      <c r="E3175" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3176" spans="1:5">
-      <c r="A3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3176" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3176" t="s">
-        <v>6102</v>
-      </c>
-      <c r="D3176" t="s">
-        <v>6103</v>
-      </c>
-      <c r="E3176" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3177" spans="1:5">
-      <c r="A3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3177" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3177" t="s">
-        <v>6104</v>
-      </c>
-      <c r="D3177" t="s">
-        <v>6105</v>
-      </c>
-      <c r="E3177" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3178" spans="1:5">
-      <c r="A3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3178" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3178" t="s">
-        <v>6106</v>
-      </c>
-      <c r="D3178" t="s">
-        <v>6107</v>
-      </c>
-      <c r="E3178" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3179" spans="1:5">
-      <c r="A3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3179" t="s">
-        <v>6108</v>
-      </c>
-      <c r="D3179" t="s">
-        <v>6109</v>
-      </c>
-      <c r="E3179" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3180" spans="1:5">
-      <c r="A3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3180" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3180" t="s">
-        <v>6110</v>
-      </c>
-      <c r="D3180" t="s">
-        <v>6111</v>
-      </c>
-      <c r="E3180" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3181" spans="1:5">
-      <c r="A3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3181" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3181" t="s">
-        <v>6112</v>
-      </c>
-      <c r="D3181" t="s">
-        <v>1798</v>
-      </c>
-      <c r="E3181" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3182" spans="1:5">
-      <c r="A3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3182" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3182" t="s">
-        <v>6113</v>
-      </c>
-      <c r="D3182" t="s">
-        <v>6114</v>
-      </c>
-      <c r="E3182" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3183" spans="1:5">
-      <c r="A3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3183" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3183" t="s">
-        <v>6115</v>
-      </c>
-      <c r="D3183" t="s">
-        <v>6116</v>
-      </c>
-      <c r="E3183" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3184" spans="1:5">
-      <c r="A3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3184" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3184" t="s">
-        <v>6117</v>
-      </c>
-      <c r="D3184" t="s">
-        <v>6118</v>
-      </c>
-      <c r="E3184" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3185" spans="1:5">
-      <c r="A3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3185" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3185" t="s">
-        <v>6119</v>
-      </c>
-      <c r="D3185" t="s">
-        <v>6120</v>
-      </c>
-      <c r="E3185" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3186" spans="1:5">
-      <c r="A3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3186" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3186" t="s">
-        <v>6121</v>
-      </c>
-      <c r="D3186" t="s">
-        <v>6122</v>
-      </c>
-      <c r="E3186" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3187" spans="1:5">
-      <c r="A3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3187" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3187" t="s">
-        <v>6123</v>
-      </c>
-      <c r="D3187" t="s">
-        <v>6124</v>
-      </c>
-      <c r="E3187" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3188" spans="1:5">
-      <c r="A3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3188" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3188" t="s">
-        <v>6125</v>
-      </c>
-      <c r="D3188" t="s">
-        <v>6126</v>
-      </c>
-      <c r="E3188" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3189" spans="1:5">
-      <c r="A3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3189" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3189" t="s">
-        <v>6127</v>
-      </c>
-      <c r="D3189" t="s">
-        <v>6128</v>
-      </c>
-      <c r="E3189" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3190" spans="1:5">
-      <c r="A3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3190" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3190" t="s">
-        <v>6129</v>
-      </c>
-      <c r="D3190" t="s">
-        <v>6130</v>
-      </c>
-      <c r="E3190" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3191" spans="1:5">
-      <c r="A3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3191" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3191" t="s">
-        <v>6131</v>
-      </c>
-      <c r="D3191" t="s">
-        <v>6132</v>
-      </c>
-      <c r="E3191" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3192" spans="1:5">
-      <c r="A3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3192" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3192" t="s">
-        <v>6133</v>
-      </c>
-      <c r="D3192" t="s">
-        <v>6134</v>
-      </c>
-      <c r="E3192" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3193" spans="1:5">
-      <c r="A3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3193" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3193" t="s">
-        <v>6135</v>
-      </c>
-      <c r="D3193" t="s">
-        <v>6136</v>
-      </c>
-      <c r="E3193" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3194" spans="1:5">
-      <c r="A3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3194" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3194" t="s">
-        <v>6137</v>
-      </c>
-      <c r="D3194" t="s">
-        <v>6138</v>
-      </c>
-      <c r="E3194" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3195" spans="1:5">
-      <c r="A3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3195" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3195" t="s">
-        <v>6139</v>
-      </c>
-      <c r="D3195" t="s">
-        <v>6140</v>
-      </c>
-      <c r="E3195" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3196" spans="1:5">
-      <c r="A3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3196" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3196" t="s">
-        <v>6141</v>
-      </c>
-      <c r="D3196" t="s">
-        <v>6142</v>
-      </c>
-      <c r="E3196" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3197" spans="1:5">
-      <c r="A3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3197" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3197" t="s">
-        <v>6143</v>
-      </c>
-      <c r="D3197" t="s">
-        <v>6144</v>
-      </c>
-      <c r="E3197" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3198" spans="1:5">
-      <c r="A3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3198" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3198" t="s">
-        <v>6145</v>
-      </c>
-      <c r="D3198" t="s">
-        <v>6146</v>
-      </c>
-      <c r="E3198" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3199" spans="1:5">
-      <c r="A3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3199" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3199" t="s">
-        <v>6147</v>
-      </c>
-      <c r="D3199" t="s">
-        <v>6148</v>
-      </c>
-      <c r="E3199" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3200" spans="1:5">
-      <c r="A3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3200" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3200" t="s">
-        <v>6149</v>
-      </c>
-      <c r="D3200" t="s">
-        <v>6150</v>
-      </c>
-      <c r="E3200" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3201" spans="1:5">
-      <c r="A3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3201" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3201" t="s">
-        <v>6151</v>
-      </c>
-      <c r="D3201" t="s">
-        <v>6152</v>
-      </c>
-      <c r="E3201" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3202" spans="1:5">
-      <c r="A3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3202" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3202" t="s">
-        <v>6153</v>
-      </c>
-      <c r="D3202" t="s">
-        <v>6154</v>
-      </c>
-      <c r="E3202" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3203" spans="1:5">
-      <c r="A3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3203" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3203" t="s">
-        <v>6155</v>
-      </c>
-      <c r="D3203" t="s">
-        <v>6156</v>
-      </c>
-      <c r="E3203" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3204" spans="1:5">
-      <c r="A3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3204" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3204" t="s">
-        <v>6157</v>
-      </c>
-      <c r="D3204" t="s">
-        <v>6158</v>
-      </c>
-      <c r="E3204" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3205" spans="1:5">
-      <c r="A3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3205" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3205" t="s">
-        <v>6159</v>
-      </c>
-      <c r="D3205" t="s">
-        <v>6160</v>
-      </c>
-      <c r="E3205" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3206" spans="1:5">
-      <c r="A3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3206" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3206" t="s">
-        <v>6161</v>
-      </c>
-      <c r="D3206" t="s">
-        <v>6162</v>
-      </c>
-      <c r="E3206" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3207" spans="1:5">
-      <c r="A3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3207" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3207" t="s">
-        <v>6163</v>
-      </c>
-      <c r="D3207" t="s">
-        <v>6164</v>
-      </c>
-      <c r="E3207" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3208" spans="1:5">
-      <c r="A3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3208" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3208" t="s">
-        <v>6165</v>
-      </c>
-      <c r="D3208" t="s">
-        <v>6166</v>
-      </c>
-      <c r="E3208" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3209" spans="1:5">
-      <c r="A3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3209" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3209" t="s">
-        <v>6167</v>
-      </c>
-      <c r="D3209" t="s">
-        <v>4327</v>
-      </c>
-      <c r="E3209" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3210" spans="1:5">
-      <c r="A3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3210" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3210" t="s">
-        <v>6168</v>
-      </c>
-      <c r="D3210" t="s">
-        <v>6169</v>
-      </c>
-      <c r="E3210" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3211" spans="1:5">
-      <c r="A3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3211" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3211" t="s">
-        <v>6170</v>
-      </c>
-      <c r="D3211" t="s">
-        <v>6171</v>
-      </c>
-      <c r="E3211" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3212" spans="1:5">
-      <c r="A3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3212" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3212" t="s">
-        <v>6172</v>
-      </c>
-      <c r="D3212" t="s">
-        <v>6173</v>
-      </c>
-      <c r="E3212" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3213" spans="1:5">
-      <c r="A3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3213" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3213" t="s">
-        <v>6174</v>
-      </c>
-      <c r="D3213" t="s">
-        <v>6175</v>
-      </c>
-      <c r="E3213" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3214" spans="1:5">
-      <c r="A3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3214" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3214" t="s">
-        <v>6176</v>
-      </c>
-      <c r="D3214" t="s">
-        <v>6177</v>
-      </c>
-      <c r="E3214" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3215" spans="1:5">
-      <c r="A3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3215" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3215" t="s">
-        <v>6178</v>
-      </c>
-      <c r="D3215" t="s">
-        <v>6179</v>
-      </c>
-      <c r="E3215" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3216" spans="1:5">
-      <c r="A3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3216" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3216" t="s">
-        <v>6180</v>
-      </c>
-      <c r="D3216" t="s">
-        <v>6181</v>
-      </c>
-      <c r="E3216" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3217" spans="1:5">
-      <c r="A3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3217" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3217" t="s">
-        <v>6182</v>
-      </c>
-      <c r="D3217" t="s">
-        <v>6183</v>
-      </c>
-      <c r="E3217" t="s">
         <v>8</v>
       </c>
     </row>
